--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6393</v>
+        <v>6456</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6394</v>
+        <v>6457</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6395</v>
+        <v>6458</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6396</v>
+        <v>6459</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6397</v>
+        <v>6460</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6398</v>
+        <v>6461</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6399</v>
+        <v>6462</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6400</v>
+        <v>6463</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>6401</v>
+        <v>6464</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6402</v>
+        <v>6465</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>6403</v>
+        <v>6466</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>6404</v>
+        <v>6467</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>6405</v>
+        <v>6468</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6406</v>
+        <v>6469</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>6407</v>
+        <v>6470</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>6408</v>
+        <v>6471</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>6409</v>
+        <v>6472</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>6410</v>
+        <v>6473</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>6411</v>
+        <v>6474</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>6412</v>
+        <v>6475</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>6413</v>
+        <v>6476</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>6414</v>
+        <v>6477</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>6415</v>
+        <v>6478</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>6416</v>
+        <v>6479</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>6417</v>
+        <v>6480</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>6418</v>
+        <v>6481</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6419</v>
+        <v>6482</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>6420</v>
+        <v>6483</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>6421</v>
+        <v>6484</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6422</v>
+        <v>6485</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6423</v>
+        <v>6486</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6424</v>
+        <v>6487</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>6425</v>
+        <v>6488</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>6426</v>
+        <v>6489</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>6427</v>
+        <v>6490</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>6428</v>
+        <v>6491</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>6429</v>
+        <v>6492</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>6430</v>
+        <v>6493</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>6431</v>
+        <v>6494</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>6432</v>
+        <v>6495</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>6433</v>
+        <v>6496</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>6434</v>
+        <v>6497</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>6435</v>
+        <v>6498</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>6436</v>
+        <v>6499</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>6437</v>
+        <v>6500</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>6438</v>
+        <v>6501</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>6439</v>
+        <v>6502</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>6440</v>
+        <v>6503</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>6441</v>
+        <v>6504</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>6442</v>
+        <v>6505</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>6443</v>
+        <v>6506</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>6444</v>
+        <v>6507</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>6445</v>
+        <v>6508</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>6446</v>
+        <v>6509</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>6447</v>
+        <v>6510</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>6448</v>
+        <v>6511</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>6449</v>
+        <v>6512</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>6450</v>
+        <v>6513</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>6451</v>
+        <v>6514</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>6452</v>
+        <v>6515</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>6453</v>
+        <v>6516</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>6454</v>
+        <v>6517</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>6455</v>
+        <v>6518</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>6456</v>
+        <v>6519</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>6457</v>
+        <v>6520</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>6458</v>
+        <v>6521</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>6459</v>
+        <v>6522</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>6460</v>
+        <v>6523</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>6461</v>
+        <v>6524</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>6462</v>
+        <v>6525</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>6463</v>
+        <v>6526</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>6464</v>
+        <v>6527</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>6465</v>
+        <v>6528</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>6466</v>
+        <v>6529</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>6467</v>
+        <v>6530</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>6468</v>
+        <v>6531</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>6469</v>
+        <v>6532</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>6470</v>
+        <v>6533</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>6471</v>
+        <v>6534</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>6472</v>
+        <v>6535</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>6473</v>
+        <v>6536</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>6474</v>
+        <v>6537</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>6475</v>
+        <v>6538</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>6476</v>
+        <v>6539</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>6477</v>
+        <v>6540</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>6478</v>
+        <v>6541</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>6479</v>
+        <v>6542</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>6480</v>
+        <v>6543</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>6481</v>
+        <v>6544</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>6482</v>
+        <v>6545</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>6483</v>
+        <v>6546</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>6484</v>
+        <v>6547</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>6485</v>
+        <v>6548</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>6486</v>
+        <v>6549</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>6487</v>
+        <v>6550</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>6488</v>
+        <v>6551</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>6489</v>
+        <v>6552</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>6490</v>
+        <v>6553</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>6491</v>
+        <v>6554</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>6492</v>
+        <v>6555</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>6493</v>
+        <v>6556</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>6494</v>
+        <v>6557</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>6495</v>
+        <v>6558</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>6496</v>
+        <v>6559</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>6497</v>
+        <v>6560</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>6498</v>
+        <v>6561</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>6499</v>
+        <v>6562</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>6500</v>
+        <v>6563</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>6501</v>
+        <v>6564</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>6502</v>
+        <v>6565</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>6503</v>
+        <v>6566</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>6504</v>
+        <v>6567</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>6505</v>
+        <v>6568</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>6506</v>
+        <v>6569</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>6507</v>
+        <v>6570</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>6508</v>
+        <v>6571</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>6509</v>
+        <v>6572</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>6510</v>
+        <v>6573</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>6511</v>
+        <v>6574</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>6512</v>
+        <v>6575</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>6513</v>
+        <v>6576</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>6514</v>
+        <v>6577</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>6515</v>
+        <v>6578</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>6516</v>
+        <v>6579</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>6517</v>
+        <v>6580</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>6518</v>
+        <v>6581</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>6519</v>
+        <v>6582</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>6520</v>
+        <v>6583</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>6521</v>
+        <v>6584</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>6522</v>
+        <v>6585</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>6523</v>
+        <v>6586</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>6524</v>
+        <v>6587</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>6525</v>
+        <v>6588</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>6526</v>
+        <v>6589</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>6527</v>
+        <v>6590</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>6528</v>
+        <v>6591</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>6529</v>
+        <v>6592</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>6530</v>
+        <v>6593</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>6531</v>
+        <v>6594</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>6532</v>
+        <v>6595</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>6533</v>
+        <v>6596</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>6534</v>
+        <v>6597</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>6535</v>
+        <v>6598</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>6536</v>
+        <v>6599</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>6537</v>
+        <v>6600</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>6538</v>
+        <v>6601</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>6539</v>
+        <v>6602</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>6540</v>
+        <v>6603</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>6541</v>
+        <v>6604</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>6542</v>
+        <v>6605</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>6543</v>
+        <v>6606</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>6544</v>
+        <v>6607</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>6545</v>
+        <v>6608</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>6546</v>
+        <v>6609</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>6547</v>
+        <v>6610</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>6548</v>
+        <v>6611</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>6549</v>
+        <v>6612</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>6550</v>
+        <v>6613</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>6551</v>
+        <v>6614</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>6552</v>
+        <v>6615</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>6553</v>
+        <v>6616</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>6554</v>
+        <v>6617</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>6555</v>
+        <v>6618</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>6556</v>
+        <v>6619</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>6557</v>
+        <v>6620</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>6558</v>
+        <v>6621</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>6559</v>
+        <v>6622</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>6560</v>
+        <v>6623</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>6561</v>
+        <v>6624</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>6562</v>
+        <v>6625</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>6563</v>
+        <v>6626</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>6564</v>
+        <v>6627</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>6565</v>
+        <v>6628</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>6566</v>
+        <v>6629</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>6567</v>
+        <v>6630</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>6568</v>
+        <v>6631</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>6569</v>
+        <v>6632</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>6570</v>
+        <v>6633</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>6571</v>
+        <v>6634</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>6572</v>
+        <v>6635</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>6573</v>
+        <v>6636</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>6574</v>
+        <v>6637</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>6575</v>
+        <v>6638</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>6576</v>
+        <v>6639</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>6577</v>
+        <v>6640</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>6578</v>
+        <v>6641</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>6579</v>
+        <v>6642</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>6580</v>
+        <v>6643</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>6581</v>
+        <v>6644</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>6582</v>
+        <v>6645</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>6583</v>
+        <v>6646</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>6584</v>
+        <v>6647</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>6585</v>
+        <v>6648</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>6586</v>
+        <v>6649</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>6587</v>
+        <v>6650</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>6588</v>
+        <v>6651</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>6589</v>
+        <v>6652</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>6590</v>
+        <v>6653</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>6591</v>
+        <v>6654</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>6592</v>
+        <v>6655</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>6593</v>
+        <v>6656</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>6594</v>
+        <v>6657</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>6595</v>
+        <v>6658</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>6596</v>
+        <v>6659</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>6597</v>
+        <v>6660</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>6598</v>
+        <v>6661</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>6599</v>
+        <v>6662</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>6600</v>
+        <v>6663</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>6601</v>
+        <v>6664</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>6602</v>
+        <v>6665</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>6603</v>
+        <v>6666</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>6604</v>
+        <v>6667</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>6605</v>
+        <v>6668</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>6606</v>
+        <v>6669</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>6607</v>
+        <v>6670</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>6608</v>
+        <v>6671</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>6609</v>
+        <v>6672</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>6610</v>
+        <v>6673</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>6611</v>
+        <v>6674</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>6612</v>
+        <v>6675</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>6613</v>
+        <v>6676</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>6614</v>
+        <v>6677</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>6615</v>
+        <v>6678</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>6616</v>
+        <v>6679</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>6617</v>
+        <v>6680</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>6618</v>
+        <v>6681</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>6619</v>
+        <v>6682</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>6620</v>
+        <v>6683</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>6621</v>
+        <v>6684</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>6622</v>
+        <v>6685</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>6623</v>
+        <v>6686</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>6624</v>
+        <v>6687</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>6625</v>
+        <v>6688</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>6626</v>
+        <v>6689</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>6627</v>
+        <v>6690</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>6628</v>
+        <v>6691</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>6629</v>
+        <v>6692</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>6630</v>
+        <v>6693</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>6631</v>
+        <v>6694</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>6632</v>
+        <v>6695</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>6633</v>
+        <v>6696</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>6634</v>
+        <v>6697</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>6635</v>
+        <v>6698</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>6636</v>
+        <v>6699</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>6637</v>
+        <v>6700</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>6638</v>
+        <v>6701</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -7361,7 +7361,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>6639</v>
+        <v>6702</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>6640</v>
+        <v>6703</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>6641</v>
+        <v>6704</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>6642</v>
+        <v>6705</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>6643</v>
+        <v>6706</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>6644</v>
+        <v>6707</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>6645</v>
+        <v>6708</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>6646</v>
+        <v>6709</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>6647</v>
+        <v>6710</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>6648</v>
+        <v>6711</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>6649</v>
+        <v>6712</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>6650</v>
+        <v>6713</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>6651</v>
+        <v>6714</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>6652</v>
+        <v>6715</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>6653</v>
+        <v>6716</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>6654</v>
+        <v>6717</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>6655</v>
+        <v>6718</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>6656</v>
+        <v>6719</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>6657</v>
+        <v>6720</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>6658</v>
+        <v>6721</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>6659</v>
+        <v>6722</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>6660</v>
+        <v>6723</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>6661</v>
+        <v>6724</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>6662</v>
+        <v>6725</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>6663</v>
+        <v>6726</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>6664</v>
+        <v>6727</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>6665</v>
+        <v>6728</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>6666</v>
+        <v>6729</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>6667</v>
+        <v>6730</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>6668</v>
+        <v>6731</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>6669</v>
+        <v>6732</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>6670</v>
+        <v>6733</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>6671</v>
+        <v>6734</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>6672</v>
+        <v>6735</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>6673</v>
+        <v>6736</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>6674</v>
+        <v>6737</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>6675</v>
+        <v>6738</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>6676</v>
+        <v>6739</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>6677</v>
+        <v>6740</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>6678</v>
+        <v>6741</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>6679</v>
+        <v>6742</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>6680</v>
+        <v>6743</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -8537,7 +8537,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>6681</v>
+        <v>6744</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>6682</v>
+        <v>6745</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>6683</v>
+        <v>6746</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>6684</v>
+        <v>6747</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>6685</v>
+        <v>6748</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>6686</v>
+        <v>6749</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>6687</v>
+        <v>6750</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>6688</v>
+        <v>6751</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>6689</v>
+        <v>6752</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>6690</v>
+        <v>6753</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>6691</v>
+        <v>6754</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>6692</v>
+        <v>6755</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>6693</v>
+        <v>6756</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -8896,6 +8896,90 @@
         <v>42.5</v>
       </c>
       <c r="H302" t="n">
+        <v>16.569</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>6757</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>110985</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F303" t="n">
+        <v>68.496</v>
+      </c>
+      <c r="G303" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H303" t="n">
+        <v>16.569</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>6758</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2021-01-01</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>112143</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1158</v>
+      </c>
+      <c r="E304" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F304" t="n">
+        <v>68.496</v>
+      </c>
+      <c r="G304" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H304" t="n">
+        <v>16.569</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>6759</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2021-01-02</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>112143</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+      <c r="E305" t="n">
+        <v>3280815</v>
+      </c>
+      <c r="F305" t="n">
+        <v>68.496</v>
+      </c>
+      <c r="G305" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H305" t="n">
         <v>16.569</v>
       </c>
     </row>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:E307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,25 +455,10 @@
           <t>population</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>population_density</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>median_age</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>aged_65_older</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6456</v>
+        <v>6498</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -489,19 +474,10 @@
       <c r="E2" t="n">
         <v>3280815</v>
       </c>
-      <c r="F2" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G2" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6457</v>
+        <v>6499</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -517,19 +493,10 @@
       <c r="E3" t="n">
         <v>3280815</v>
       </c>
-      <c r="F3" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G3" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>6458</v>
+        <v>6500</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -545,19 +512,10 @@
       <c r="E4" t="n">
         <v>3280815</v>
       </c>
-      <c r="F4" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G4" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6459</v>
+        <v>6501</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -573,19 +531,10 @@
       <c r="E5" t="n">
         <v>3280815</v>
       </c>
-      <c r="F5" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G5" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6460</v>
+        <v>6502</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -601,19 +550,10 @@
       <c r="E6" t="n">
         <v>3280815</v>
       </c>
-      <c r="F6" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G6" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6461</v>
+        <v>6503</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -629,19 +569,10 @@
       <c r="E7" t="n">
         <v>3280815</v>
       </c>
-      <c r="F7" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G7" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6462</v>
+        <v>6504</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -657,19 +588,10 @@
       <c r="E8" t="n">
         <v>3280815</v>
       </c>
-      <c r="F8" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G8" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6463</v>
+        <v>6505</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -685,19 +607,10 @@
       <c r="E9" t="n">
         <v>3280815</v>
       </c>
-      <c r="F9" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G9" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>6464</v>
+        <v>6506</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -713,19 +626,10 @@
       <c r="E10" t="n">
         <v>3280815</v>
       </c>
-      <c r="F10" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G10" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6465</v>
+        <v>6507</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -741,19 +645,10 @@
       <c r="E11" t="n">
         <v>3280815</v>
       </c>
-      <c r="F11" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G11" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>6466</v>
+        <v>6508</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -769,19 +664,10 @@
       <c r="E12" t="n">
         <v>3280815</v>
       </c>
-      <c r="F12" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G12" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>6467</v>
+        <v>6509</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -797,19 +683,10 @@
       <c r="E13" t="n">
         <v>3280815</v>
       </c>
-      <c r="F13" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G13" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>6468</v>
+        <v>6510</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -825,19 +702,10 @@
       <c r="E14" t="n">
         <v>3280815</v>
       </c>
-      <c r="F14" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G14" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6469</v>
+        <v>6511</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -853,19 +721,10 @@
       <c r="E15" t="n">
         <v>3280815</v>
       </c>
-      <c r="F15" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G15" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>6470</v>
+        <v>6512</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -881,19 +740,10 @@
       <c r="E16" t="n">
         <v>3280815</v>
       </c>
-      <c r="F16" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G16" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>6471</v>
+        <v>6513</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -909,19 +759,10 @@
       <c r="E17" t="n">
         <v>3280815</v>
       </c>
-      <c r="F17" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G17" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>6472</v>
+        <v>6514</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -937,19 +778,10 @@
       <c r="E18" t="n">
         <v>3280815</v>
       </c>
-      <c r="F18" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G18" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>6473</v>
+        <v>6515</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -965,19 +797,10 @@
       <c r="E19" t="n">
         <v>3280815</v>
       </c>
-      <c r="F19" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G19" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>6474</v>
+        <v>6516</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -993,19 +816,10 @@
       <c r="E20" t="n">
         <v>3280815</v>
       </c>
-      <c r="F20" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G20" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H20" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>6475</v>
+        <v>6517</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1021,19 +835,10 @@
       <c r="E21" t="n">
         <v>3280815</v>
       </c>
-      <c r="F21" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G21" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>6476</v>
+        <v>6518</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1049,19 +854,10 @@
       <c r="E22" t="n">
         <v>3280815</v>
       </c>
-      <c r="F22" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G22" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>6477</v>
+        <v>6519</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1077,19 +873,10 @@
       <c r="E23" t="n">
         <v>3280815</v>
       </c>
-      <c r="F23" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G23" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>6478</v>
+        <v>6520</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1105,19 +892,10 @@
       <c r="E24" t="n">
         <v>3280815</v>
       </c>
-      <c r="F24" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G24" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>6479</v>
+        <v>6521</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1133,19 +911,10 @@
       <c r="E25" t="n">
         <v>3280815</v>
       </c>
-      <c r="F25" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G25" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>6480</v>
+        <v>6522</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1161,19 +930,10 @@
       <c r="E26" t="n">
         <v>3280815</v>
       </c>
-      <c r="F26" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G26" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>6481</v>
+        <v>6523</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1189,19 +949,10 @@
       <c r="E27" t="n">
         <v>3280815</v>
       </c>
-      <c r="F27" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G27" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6482</v>
+        <v>6524</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1217,19 +968,10 @@
       <c r="E28" t="n">
         <v>3280815</v>
       </c>
-      <c r="F28" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G28" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>6483</v>
+        <v>6525</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1245,19 +987,10 @@
       <c r="E29" t="n">
         <v>3280815</v>
       </c>
-      <c r="F29" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G29" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H29" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>6484</v>
+        <v>6526</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1273,19 +1006,10 @@
       <c r="E30" t="n">
         <v>3280815</v>
       </c>
-      <c r="F30" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G30" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H30" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>6485</v>
+        <v>6527</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1301,19 +1025,10 @@
       <c r="E31" t="n">
         <v>3280815</v>
       </c>
-      <c r="F31" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G31" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H31" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6486</v>
+        <v>6528</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1329,19 +1044,10 @@
       <c r="E32" t="n">
         <v>3280815</v>
       </c>
-      <c r="F32" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G32" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H32" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>6487</v>
+        <v>6529</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1357,19 +1063,10 @@
       <c r="E33" t="n">
         <v>3280815</v>
       </c>
-      <c r="F33" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G33" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>6488</v>
+        <v>6530</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1385,19 +1082,10 @@
       <c r="E34" t="n">
         <v>3280815</v>
       </c>
-      <c r="F34" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G34" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>6489</v>
+        <v>6531</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1413,19 +1101,10 @@
       <c r="E35" t="n">
         <v>3280815</v>
       </c>
-      <c r="F35" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G35" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H35" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>6490</v>
+        <v>6532</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1441,19 +1120,10 @@
       <c r="E36" t="n">
         <v>3280815</v>
       </c>
-      <c r="F36" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G36" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H36" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>6491</v>
+        <v>6533</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1469,19 +1139,10 @@
       <c r="E37" t="n">
         <v>3280815</v>
       </c>
-      <c r="F37" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G37" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H37" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>6492</v>
+        <v>6534</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1497,19 +1158,10 @@
       <c r="E38" t="n">
         <v>3280815</v>
       </c>
-      <c r="F38" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G38" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H38" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>6493</v>
+        <v>6535</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1525,19 +1177,10 @@
       <c r="E39" t="n">
         <v>3280815</v>
       </c>
-      <c r="F39" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G39" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H39" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>6494</v>
+        <v>6536</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1553,19 +1196,10 @@
       <c r="E40" t="n">
         <v>3280815</v>
       </c>
-      <c r="F40" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G40" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H40" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>6495</v>
+        <v>6537</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1581,19 +1215,10 @@
       <c r="E41" t="n">
         <v>3280815</v>
       </c>
-      <c r="F41" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G41" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H41" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>6496</v>
+        <v>6538</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1609,19 +1234,10 @@
       <c r="E42" t="n">
         <v>3280815</v>
       </c>
-      <c r="F42" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G42" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H42" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>6497</v>
+        <v>6539</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1637,19 +1253,10 @@
       <c r="E43" t="n">
         <v>3280815</v>
       </c>
-      <c r="F43" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G43" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H43" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>6498</v>
+        <v>6540</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1665,19 +1272,10 @@
       <c r="E44" t="n">
         <v>3280815</v>
       </c>
-      <c r="F44" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G44" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>6499</v>
+        <v>6541</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1693,19 +1291,10 @@
       <c r="E45" t="n">
         <v>3280815</v>
       </c>
-      <c r="F45" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G45" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H45" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>6500</v>
+        <v>6542</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1721,19 +1310,10 @@
       <c r="E46" t="n">
         <v>3280815</v>
       </c>
-      <c r="F46" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G46" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H46" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>6501</v>
+        <v>6543</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1749,19 +1329,10 @@
       <c r="E47" t="n">
         <v>3280815</v>
       </c>
-      <c r="F47" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G47" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H47" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>6502</v>
+        <v>6544</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1777,19 +1348,10 @@
       <c r="E48" t="n">
         <v>3280815</v>
       </c>
-      <c r="F48" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G48" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H48" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>6503</v>
+        <v>6545</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1805,19 +1367,10 @@
       <c r="E49" t="n">
         <v>3280815</v>
       </c>
-      <c r="F49" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G49" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H49" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>6504</v>
+        <v>6546</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1833,19 +1386,10 @@
       <c r="E50" t="n">
         <v>3280815</v>
       </c>
-      <c r="F50" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G50" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H50" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>6505</v>
+        <v>6547</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1861,19 +1405,10 @@
       <c r="E51" t="n">
         <v>3280815</v>
       </c>
-      <c r="F51" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G51" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H51" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>6506</v>
+        <v>6548</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1889,19 +1424,10 @@
       <c r="E52" t="n">
         <v>3280815</v>
       </c>
-      <c r="F52" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G52" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H52" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>6507</v>
+        <v>6549</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1917,19 +1443,10 @@
       <c r="E53" t="n">
         <v>3280815</v>
       </c>
-      <c r="F53" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G53" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H53" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>6508</v>
+        <v>6550</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1945,19 +1462,10 @@
       <c r="E54" t="n">
         <v>3280815</v>
       </c>
-      <c r="F54" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G54" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H54" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>6509</v>
+        <v>6551</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1973,19 +1481,10 @@
       <c r="E55" t="n">
         <v>3280815</v>
       </c>
-      <c r="F55" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G55" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H55" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>6510</v>
+        <v>6552</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2001,19 +1500,10 @@
       <c r="E56" t="n">
         <v>3280815</v>
       </c>
-      <c r="F56" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G56" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H56" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>6511</v>
+        <v>6553</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2029,19 +1519,10 @@
       <c r="E57" t="n">
         <v>3280815</v>
       </c>
-      <c r="F57" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G57" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>6512</v>
+        <v>6554</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2057,19 +1538,10 @@
       <c r="E58" t="n">
         <v>3280815</v>
       </c>
-      <c r="F58" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G58" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H58" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>6513</v>
+        <v>6555</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2085,19 +1557,10 @@
       <c r="E59" t="n">
         <v>3280815</v>
       </c>
-      <c r="F59" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G59" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H59" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>6514</v>
+        <v>6556</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2113,19 +1576,10 @@
       <c r="E60" t="n">
         <v>3280815</v>
       </c>
-      <c r="F60" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G60" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H60" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>6515</v>
+        <v>6557</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2141,19 +1595,10 @@
       <c r="E61" t="n">
         <v>3280815</v>
       </c>
-      <c r="F61" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G61" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H61" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>6516</v>
+        <v>6558</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2169,19 +1614,10 @@
       <c r="E62" t="n">
         <v>3280815</v>
       </c>
-      <c r="F62" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G62" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H62" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>6517</v>
+        <v>6559</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2197,19 +1633,10 @@
       <c r="E63" t="n">
         <v>3280815</v>
       </c>
-      <c r="F63" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G63" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H63" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>6518</v>
+        <v>6560</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2225,19 +1652,10 @@
       <c r="E64" t="n">
         <v>3280815</v>
       </c>
-      <c r="F64" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G64" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H64" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>6519</v>
+        <v>6561</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2253,19 +1671,10 @@
       <c r="E65" t="n">
         <v>3280815</v>
       </c>
-      <c r="F65" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G65" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H65" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>6520</v>
+        <v>6562</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2281,19 +1690,10 @@
       <c r="E66" t="n">
         <v>3280815</v>
       </c>
-      <c r="F66" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G66" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H66" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>6521</v>
+        <v>6563</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2309,19 +1709,10 @@
       <c r="E67" t="n">
         <v>3280815</v>
       </c>
-      <c r="F67" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G67" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H67" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>6522</v>
+        <v>6564</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2337,19 +1728,10 @@
       <c r="E68" t="n">
         <v>3280815</v>
       </c>
-      <c r="F68" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G68" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H68" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>6523</v>
+        <v>6565</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2365,19 +1747,10 @@
       <c r="E69" t="n">
         <v>3280815</v>
       </c>
-      <c r="F69" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G69" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H69" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>6524</v>
+        <v>6566</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2393,19 +1766,10 @@
       <c r="E70" t="n">
         <v>3280815</v>
       </c>
-      <c r="F70" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G70" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H70" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>6525</v>
+        <v>6567</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2421,19 +1785,10 @@
       <c r="E71" t="n">
         <v>3280815</v>
       </c>
-      <c r="F71" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G71" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H71" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>6526</v>
+        <v>6568</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2449,19 +1804,10 @@
       <c r="E72" t="n">
         <v>3280815</v>
       </c>
-      <c r="F72" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G72" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H72" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>6527</v>
+        <v>6569</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2477,19 +1823,10 @@
       <c r="E73" t="n">
         <v>3280815</v>
       </c>
-      <c r="F73" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G73" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H73" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>6528</v>
+        <v>6570</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2505,19 +1842,10 @@
       <c r="E74" t="n">
         <v>3280815</v>
       </c>
-      <c r="F74" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G74" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H74" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>6529</v>
+        <v>6571</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2533,19 +1861,10 @@
       <c r="E75" t="n">
         <v>3280815</v>
       </c>
-      <c r="F75" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G75" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H75" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>6530</v>
+        <v>6572</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2561,19 +1880,10 @@
       <c r="E76" t="n">
         <v>3280815</v>
       </c>
-      <c r="F76" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G76" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H76" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>6531</v>
+        <v>6573</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2589,19 +1899,10 @@
       <c r="E77" t="n">
         <v>3280815</v>
       </c>
-      <c r="F77" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G77" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H77" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>6532</v>
+        <v>6574</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2617,19 +1918,10 @@
       <c r="E78" t="n">
         <v>3280815</v>
       </c>
-      <c r="F78" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G78" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H78" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>6533</v>
+        <v>6575</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2645,19 +1937,10 @@
       <c r="E79" t="n">
         <v>3280815</v>
       </c>
-      <c r="F79" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G79" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H79" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>6534</v>
+        <v>6576</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2673,19 +1956,10 @@
       <c r="E80" t="n">
         <v>3280815</v>
       </c>
-      <c r="F80" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G80" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H80" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>6535</v>
+        <v>6577</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2701,19 +1975,10 @@
       <c r="E81" t="n">
         <v>3280815</v>
       </c>
-      <c r="F81" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G81" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H81" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>6536</v>
+        <v>6578</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2729,19 +1994,10 @@
       <c r="E82" t="n">
         <v>3280815</v>
       </c>
-      <c r="F82" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G82" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>6537</v>
+        <v>6579</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2757,19 +2013,10 @@
       <c r="E83" t="n">
         <v>3280815</v>
       </c>
-      <c r="F83" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G83" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>6538</v>
+        <v>6580</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2785,19 +2032,10 @@
       <c r="E84" t="n">
         <v>3280815</v>
       </c>
-      <c r="F84" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G84" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H84" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>6539</v>
+        <v>6581</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2813,19 +2051,10 @@
       <c r="E85" t="n">
         <v>3280815</v>
       </c>
-      <c r="F85" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G85" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H85" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>6540</v>
+        <v>6582</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2841,19 +2070,10 @@
       <c r="E86" t="n">
         <v>3280815</v>
       </c>
-      <c r="F86" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G86" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H86" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>6541</v>
+        <v>6583</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2869,19 +2089,10 @@
       <c r="E87" t="n">
         <v>3280815</v>
       </c>
-      <c r="F87" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G87" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H87" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>6542</v>
+        <v>6584</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2897,19 +2108,10 @@
       <c r="E88" t="n">
         <v>3280815</v>
       </c>
-      <c r="F88" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G88" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H88" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>6543</v>
+        <v>6585</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2925,19 +2127,10 @@
       <c r="E89" t="n">
         <v>3280815</v>
       </c>
-      <c r="F89" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G89" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H89" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>6544</v>
+        <v>6586</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2953,19 +2146,10 @@
       <c r="E90" t="n">
         <v>3280815</v>
       </c>
-      <c r="F90" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G90" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H90" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>6545</v>
+        <v>6587</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2981,19 +2165,10 @@
       <c r="E91" t="n">
         <v>3280815</v>
       </c>
-      <c r="F91" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G91" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H91" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>6546</v>
+        <v>6588</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3009,19 +2184,10 @@
       <c r="E92" t="n">
         <v>3280815</v>
       </c>
-      <c r="F92" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G92" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H92" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>6547</v>
+        <v>6589</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3037,19 +2203,10 @@
       <c r="E93" t="n">
         <v>3280815</v>
       </c>
-      <c r="F93" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G93" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H93" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>6548</v>
+        <v>6590</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3065,19 +2222,10 @@
       <c r="E94" t="n">
         <v>3280815</v>
       </c>
-      <c r="F94" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G94" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H94" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>6549</v>
+        <v>6591</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3093,19 +2241,10 @@
       <c r="E95" t="n">
         <v>3280815</v>
       </c>
-      <c r="F95" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G95" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H95" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>6550</v>
+        <v>6592</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3121,19 +2260,10 @@
       <c r="E96" t="n">
         <v>3280815</v>
       </c>
-      <c r="F96" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G96" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H96" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>6551</v>
+        <v>6593</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3149,19 +2279,10 @@
       <c r="E97" t="n">
         <v>3280815</v>
       </c>
-      <c r="F97" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G97" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H97" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>6552</v>
+        <v>6594</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3177,19 +2298,10 @@
       <c r="E98" t="n">
         <v>3280815</v>
       </c>
-      <c r="F98" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G98" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H98" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>6553</v>
+        <v>6595</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3205,19 +2317,10 @@
       <c r="E99" t="n">
         <v>3280815</v>
       </c>
-      <c r="F99" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G99" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H99" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>6554</v>
+        <v>6596</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3233,19 +2336,10 @@
       <c r="E100" t="n">
         <v>3280815</v>
       </c>
-      <c r="F100" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G100" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H100" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>6555</v>
+        <v>6597</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3261,19 +2355,10 @@
       <c r="E101" t="n">
         <v>3280815</v>
       </c>
-      <c r="F101" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G101" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H101" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>6556</v>
+        <v>6598</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3289,19 +2374,10 @@
       <c r="E102" t="n">
         <v>3280815</v>
       </c>
-      <c r="F102" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G102" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H102" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>6557</v>
+        <v>6599</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3317,19 +2393,10 @@
       <c r="E103" t="n">
         <v>3280815</v>
       </c>
-      <c r="F103" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G103" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H103" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>6558</v>
+        <v>6600</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3345,19 +2412,10 @@
       <c r="E104" t="n">
         <v>3280815</v>
       </c>
-      <c r="F104" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G104" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H104" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>6559</v>
+        <v>6601</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3373,19 +2431,10 @@
       <c r="E105" t="n">
         <v>3280815</v>
       </c>
-      <c r="F105" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G105" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H105" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>6560</v>
+        <v>6602</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3401,19 +2450,10 @@
       <c r="E106" t="n">
         <v>3280815</v>
       </c>
-      <c r="F106" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G106" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H106" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>6561</v>
+        <v>6603</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3429,19 +2469,10 @@
       <c r="E107" t="n">
         <v>3280815</v>
       </c>
-      <c r="F107" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G107" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H107" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>6562</v>
+        <v>6604</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3457,19 +2488,10 @@
       <c r="E108" t="n">
         <v>3280815</v>
       </c>
-      <c r="F108" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G108" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H108" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>6563</v>
+        <v>6605</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3485,19 +2507,10 @@
       <c r="E109" t="n">
         <v>3280815</v>
       </c>
-      <c r="F109" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G109" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H109" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>6564</v>
+        <v>6606</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3513,19 +2526,10 @@
       <c r="E110" t="n">
         <v>3280815</v>
       </c>
-      <c r="F110" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G110" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H110" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>6565</v>
+        <v>6607</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3541,19 +2545,10 @@
       <c r="E111" t="n">
         <v>3280815</v>
       </c>
-      <c r="F111" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G111" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H111" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>6566</v>
+        <v>6608</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3569,19 +2564,10 @@
       <c r="E112" t="n">
         <v>3280815</v>
       </c>
-      <c r="F112" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G112" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H112" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>6567</v>
+        <v>6609</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3597,19 +2583,10 @@
       <c r="E113" t="n">
         <v>3280815</v>
       </c>
-      <c r="F113" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G113" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H113" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>6568</v>
+        <v>6610</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3625,19 +2602,10 @@
       <c r="E114" t="n">
         <v>3280815</v>
       </c>
-      <c r="F114" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G114" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H114" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>6569</v>
+        <v>6611</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3653,19 +2621,10 @@
       <c r="E115" t="n">
         <v>3280815</v>
       </c>
-      <c r="F115" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G115" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H115" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>6570</v>
+        <v>6612</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3681,19 +2640,10 @@
       <c r="E116" t="n">
         <v>3280815</v>
       </c>
-      <c r="F116" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G116" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H116" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>6571</v>
+        <v>6613</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3709,19 +2659,10 @@
       <c r="E117" t="n">
         <v>3280815</v>
       </c>
-      <c r="F117" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G117" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H117" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>6572</v>
+        <v>6614</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3737,19 +2678,10 @@
       <c r="E118" t="n">
         <v>3280815</v>
       </c>
-      <c r="F118" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G118" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H118" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>6573</v>
+        <v>6615</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3765,19 +2697,10 @@
       <c r="E119" t="n">
         <v>3280815</v>
       </c>
-      <c r="F119" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G119" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H119" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>6574</v>
+        <v>6616</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3793,19 +2716,10 @@
       <c r="E120" t="n">
         <v>3280815</v>
       </c>
-      <c r="F120" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G120" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H120" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>6575</v>
+        <v>6617</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3821,19 +2735,10 @@
       <c r="E121" t="n">
         <v>3280815</v>
       </c>
-      <c r="F121" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G121" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H121" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>6576</v>
+        <v>6618</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3849,19 +2754,10 @@
       <c r="E122" t="n">
         <v>3280815</v>
       </c>
-      <c r="F122" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G122" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H122" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>6577</v>
+        <v>6619</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3877,19 +2773,10 @@
       <c r="E123" t="n">
         <v>3280815</v>
       </c>
-      <c r="F123" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G123" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H123" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>6578</v>
+        <v>6620</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3905,19 +2792,10 @@
       <c r="E124" t="n">
         <v>3280815</v>
       </c>
-      <c r="F124" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G124" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H124" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>6579</v>
+        <v>6621</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3933,19 +2811,10 @@
       <c r="E125" t="n">
         <v>3280815</v>
       </c>
-      <c r="F125" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G125" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H125" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>6580</v>
+        <v>6622</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3961,19 +2830,10 @@
       <c r="E126" t="n">
         <v>3280815</v>
       </c>
-      <c r="F126" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G126" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H126" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>6581</v>
+        <v>6623</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3989,19 +2849,10 @@
       <c r="E127" t="n">
         <v>3280815</v>
       </c>
-      <c r="F127" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G127" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H127" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>6582</v>
+        <v>6624</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4017,19 +2868,10 @@
       <c r="E128" t="n">
         <v>3280815</v>
       </c>
-      <c r="F128" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G128" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H128" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>6583</v>
+        <v>6625</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4045,19 +2887,10 @@
       <c r="E129" t="n">
         <v>3280815</v>
       </c>
-      <c r="F129" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G129" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H129" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>6584</v>
+        <v>6626</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4073,19 +2906,10 @@
       <c r="E130" t="n">
         <v>3280815</v>
       </c>
-      <c r="F130" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G130" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H130" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>6585</v>
+        <v>6627</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4101,19 +2925,10 @@
       <c r="E131" t="n">
         <v>3280815</v>
       </c>
-      <c r="F131" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G131" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H131" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>6586</v>
+        <v>6628</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4129,19 +2944,10 @@
       <c r="E132" t="n">
         <v>3280815</v>
       </c>
-      <c r="F132" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G132" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H132" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>6587</v>
+        <v>6629</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4157,19 +2963,10 @@
       <c r="E133" t="n">
         <v>3280815</v>
       </c>
-      <c r="F133" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G133" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H133" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>6588</v>
+        <v>6630</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4185,19 +2982,10 @@
       <c r="E134" t="n">
         <v>3280815</v>
       </c>
-      <c r="F134" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G134" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H134" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>6589</v>
+        <v>6631</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4213,19 +3001,10 @@
       <c r="E135" t="n">
         <v>3280815</v>
       </c>
-      <c r="F135" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G135" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H135" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>6590</v>
+        <v>6632</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4241,19 +3020,10 @@
       <c r="E136" t="n">
         <v>3280815</v>
       </c>
-      <c r="F136" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G136" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H136" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>6591</v>
+        <v>6633</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4269,19 +3039,10 @@
       <c r="E137" t="n">
         <v>3280815</v>
       </c>
-      <c r="F137" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G137" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H137" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>6592</v>
+        <v>6634</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4297,19 +3058,10 @@
       <c r="E138" t="n">
         <v>3280815</v>
       </c>
-      <c r="F138" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G138" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H138" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>6593</v>
+        <v>6635</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4325,19 +3077,10 @@
       <c r="E139" t="n">
         <v>3280815</v>
       </c>
-      <c r="F139" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G139" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H139" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>6594</v>
+        <v>6636</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4353,19 +3096,10 @@
       <c r="E140" t="n">
         <v>3280815</v>
       </c>
-      <c r="F140" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G140" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H140" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>6595</v>
+        <v>6637</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4381,19 +3115,10 @@
       <c r="E141" t="n">
         <v>3280815</v>
       </c>
-      <c r="F141" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G141" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H141" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>6596</v>
+        <v>6638</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4409,19 +3134,10 @@
       <c r="E142" t="n">
         <v>3280815</v>
       </c>
-      <c r="F142" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G142" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H142" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>6597</v>
+        <v>6639</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4437,19 +3153,10 @@
       <c r="E143" t="n">
         <v>3280815</v>
       </c>
-      <c r="F143" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G143" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H143" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>6598</v>
+        <v>6640</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4465,19 +3172,10 @@
       <c r="E144" t="n">
         <v>3280815</v>
       </c>
-      <c r="F144" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G144" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H144" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>6599</v>
+        <v>6641</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4493,19 +3191,10 @@
       <c r="E145" t="n">
         <v>3280815</v>
       </c>
-      <c r="F145" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G145" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H145" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>6600</v>
+        <v>6642</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4521,19 +3210,10 @@
       <c r="E146" t="n">
         <v>3280815</v>
       </c>
-      <c r="F146" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G146" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H146" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>6601</v>
+        <v>6643</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4549,19 +3229,10 @@
       <c r="E147" t="n">
         <v>3280815</v>
       </c>
-      <c r="F147" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G147" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H147" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>6602</v>
+        <v>6644</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4577,19 +3248,10 @@
       <c r="E148" t="n">
         <v>3280815</v>
       </c>
-      <c r="F148" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G148" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H148" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>6603</v>
+        <v>6645</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4605,19 +3267,10 @@
       <c r="E149" t="n">
         <v>3280815</v>
       </c>
-      <c r="F149" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G149" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H149" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>6604</v>
+        <v>6646</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4633,19 +3286,10 @@
       <c r="E150" t="n">
         <v>3280815</v>
       </c>
-      <c r="F150" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G150" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H150" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>6605</v>
+        <v>6647</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4661,19 +3305,10 @@
       <c r="E151" t="n">
         <v>3280815</v>
       </c>
-      <c r="F151" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G151" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H151" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>6606</v>
+        <v>6648</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4689,19 +3324,10 @@
       <c r="E152" t="n">
         <v>3280815</v>
       </c>
-      <c r="F152" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G152" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H152" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>6607</v>
+        <v>6649</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4717,19 +3343,10 @@
       <c r="E153" t="n">
         <v>3280815</v>
       </c>
-      <c r="F153" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G153" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H153" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>6608</v>
+        <v>6650</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4745,19 +3362,10 @@
       <c r="E154" t="n">
         <v>3280815</v>
       </c>
-      <c r="F154" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G154" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H154" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>6609</v>
+        <v>6651</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4773,19 +3381,10 @@
       <c r="E155" t="n">
         <v>3280815</v>
       </c>
-      <c r="F155" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G155" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H155" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>6610</v>
+        <v>6652</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4801,19 +3400,10 @@
       <c r="E156" t="n">
         <v>3280815</v>
       </c>
-      <c r="F156" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G156" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H156" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>6611</v>
+        <v>6653</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4829,19 +3419,10 @@
       <c r="E157" t="n">
         <v>3280815</v>
       </c>
-      <c r="F157" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G157" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H157" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>6612</v>
+        <v>6654</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4857,19 +3438,10 @@
       <c r="E158" t="n">
         <v>3280815</v>
       </c>
-      <c r="F158" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G158" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H158" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>6613</v>
+        <v>6655</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4885,19 +3457,10 @@
       <c r="E159" t="n">
         <v>3280815</v>
       </c>
-      <c r="F159" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G159" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H159" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>6614</v>
+        <v>6656</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4913,19 +3476,10 @@
       <c r="E160" t="n">
         <v>3280815</v>
       </c>
-      <c r="F160" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G160" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H160" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>6615</v>
+        <v>6657</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4941,19 +3495,10 @@
       <c r="E161" t="n">
         <v>3280815</v>
       </c>
-      <c r="F161" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G161" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H161" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>6616</v>
+        <v>6658</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4969,19 +3514,10 @@
       <c r="E162" t="n">
         <v>3280815</v>
       </c>
-      <c r="F162" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G162" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H162" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>6617</v>
+        <v>6659</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4997,19 +3533,10 @@
       <c r="E163" t="n">
         <v>3280815</v>
       </c>
-      <c r="F163" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G163" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H163" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>6618</v>
+        <v>6660</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -5025,19 +3552,10 @@
       <c r="E164" t="n">
         <v>3280815</v>
       </c>
-      <c r="F164" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G164" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H164" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>6619</v>
+        <v>6661</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -5053,19 +3571,10 @@
       <c r="E165" t="n">
         <v>3280815</v>
       </c>
-      <c r="F165" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G165" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H165" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>6620</v>
+        <v>6662</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -5081,19 +3590,10 @@
       <c r="E166" t="n">
         <v>3280815</v>
       </c>
-      <c r="F166" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G166" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H166" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>6621</v>
+        <v>6663</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5109,19 +3609,10 @@
       <c r="E167" t="n">
         <v>3280815</v>
       </c>
-      <c r="F167" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G167" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H167" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>6622</v>
+        <v>6664</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -5137,19 +3628,10 @@
       <c r="E168" t="n">
         <v>3280815</v>
       </c>
-      <c r="F168" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G168" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H168" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>6623</v>
+        <v>6665</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -5165,19 +3647,10 @@
       <c r="E169" t="n">
         <v>3280815</v>
       </c>
-      <c r="F169" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G169" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H169" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>6624</v>
+        <v>6666</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -5193,19 +3666,10 @@
       <c r="E170" t="n">
         <v>3280815</v>
       </c>
-      <c r="F170" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G170" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H170" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>6625</v>
+        <v>6667</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5221,19 +3685,10 @@
       <c r="E171" t="n">
         <v>3280815</v>
       </c>
-      <c r="F171" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G171" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H171" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>6626</v>
+        <v>6668</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -5249,19 +3704,10 @@
       <c r="E172" t="n">
         <v>3280815</v>
       </c>
-      <c r="F172" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G172" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H172" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>6627</v>
+        <v>6669</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5277,19 +3723,10 @@
       <c r="E173" t="n">
         <v>3280815</v>
       </c>
-      <c r="F173" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G173" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H173" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>6628</v>
+        <v>6670</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -5305,19 +3742,10 @@
       <c r="E174" t="n">
         <v>3280815</v>
       </c>
-      <c r="F174" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G174" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H174" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>6629</v>
+        <v>6671</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -5333,19 +3761,10 @@
       <c r="E175" t="n">
         <v>3280815</v>
       </c>
-      <c r="F175" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G175" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H175" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>6630</v>
+        <v>6672</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -5361,19 +3780,10 @@
       <c r="E176" t="n">
         <v>3280815</v>
       </c>
-      <c r="F176" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G176" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H176" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>6631</v>
+        <v>6673</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -5389,19 +3799,10 @@
       <c r="E177" t="n">
         <v>3280815</v>
       </c>
-      <c r="F177" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G177" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H177" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>6632</v>
+        <v>6674</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -5417,19 +3818,10 @@
       <c r="E178" t="n">
         <v>3280815</v>
       </c>
-      <c r="F178" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G178" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H178" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>6633</v>
+        <v>6675</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5445,19 +3837,10 @@
       <c r="E179" t="n">
         <v>3280815</v>
       </c>
-      <c r="F179" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G179" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H179" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>6634</v>
+        <v>6676</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -5473,19 +3856,10 @@
       <c r="E180" t="n">
         <v>3280815</v>
       </c>
-      <c r="F180" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G180" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H180" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>6635</v>
+        <v>6677</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -5501,19 +3875,10 @@
       <c r="E181" t="n">
         <v>3280815</v>
       </c>
-      <c r="F181" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G181" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H181" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>6636</v>
+        <v>6678</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5529,19 +3894,10 @@
       <c r="E182" t="n">
         <v>3280815</v>
       </c>
-      <c r="F182" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G182" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H182" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>6637</v>
+        <v>6679</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5557,19 +3913,10 @@
       <c r="E183" t="n">
         <v>3280815</v>
       </c>
-      <c r="F183" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G183" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H183" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>6638</v>
+        <v>6680</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5585,19 +3932,10 @@
       <c r="E184" t="n">
         <v>3280815</v>
       </c>
-      <c r="F184" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G184" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H184" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>6639</v>
+        <v>6681</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5613,19 +3951,10 @@
       <c r="E185" t="n">
         <v>3280815</v>
       </c>
-      <c r="F185" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G185" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H185" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>6640</v>
+        <v>6682</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5641,19 +3970,10 @@
       <c r="E186" t="n">
         <v>3280815</v>
       </c>
-      <c r="F186" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G186" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H186" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>6641</v>
+        <v>6683</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5669,19 +3989,10 @@
       <c r="E187" t="n">
         <v>3280815</v>
       </c>
-      <c r="F187" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G187" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H187" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>6642</v>
+        <v>6684</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5697,19 +4008,10 @@
       <c r="E188" t="n">
         <v>3280815</v>
       </c>
-      <c r="F188" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G188" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H188" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>6643</v>
+        <v>6685</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -5725,19 +4027,10 @@
       <c r="E189" t="n">
         <v>3280815</v>
       </c>
-      <c r="F189" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G189" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H189" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>6644</v>
+        <v>6686</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5753,19 +4046,10 @@
       <c r="E190" t="n">
         <v>3280815</v>
       </c>
-      <c r="F190" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G190" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H190" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>6645</v>
+        <v>6687</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5781,19 +4065,10 @@
       <c r="E191" t="n">
         <v>3280815</v>
       </c>
-      <c r="F191" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G191" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H191" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>6646</v>
+        <v>6688</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5809,19 +4084,10 @@
       <c r="E192" t="n">
         <v>3280815</v>
       </c>
-      <c r="F192" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G192" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H192" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>6647</v>
+        <v>6689</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5837,19 +4103,10 @@
       <c r="E193" t="n">
         <v>3280815</v>
       </c>
-      <c r="F193" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G193" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H193" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>6648</v>
+        <v>6690</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5865,19 +4122,10 @@
       <c r="E194" t="n">
         <v>3280815</v>
       </c>
-      <c r="F194" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G194" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H194" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>6649</v>
+        <v>6691</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5893,19 +4141,10 @@
       <c r="E195" t="n">
         <v>3280815</v>
       </c>
-      <c r="F195" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G195" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H195" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>6650</v>
+        <v>6692</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -5921,19 +4160,10 @@
       <c r="E196" t="n">
         <v>3280815</v>
       </c>
-      <c r="F196" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G196" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H196" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>6651</v>
+        <v>6693</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5949,19 +4179,10 @@
       <c r="E197" t="n">
         <v>3280815</v>
       </c>
-      <c r="F197" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G197" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H197" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>6652</v>
+        <v>6694</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5977,19 +4198,10 @@
       <c r="E198" t="n">
         <v>3280815</v>
       </c>
-      <c r="F198" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G198" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H198" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>6653</v>
+        <v>6695</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -6005,19 +4217,10 @@
       <c r="E199" t="n">
         <v>3280815</v>
       </c>
-      <c r="F199" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G199" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H199" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>6654</v>
+        <v>6696</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -6033,19 +4236,10 @@
       <c r="E200" t="n">
         <v>3280815</v>
       </c>
-      <c r="F200" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G200" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H200" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>6655</v>
+        <v>6697</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -6061,19 +4255,10 @@
       <c r="E201" t="n">
         <v>3280815</v>
       </c>
-      <c r="F201" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G201" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H201" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>6656</v>
+        <v>6698</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -6089,19 +4274,10 @@
       <c r="E202" t="n">
         <v>3280815</v>
       </c>
-      <c r="F202" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G202" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H202" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>6657</v>
+        <v>6699</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -6117,19 +4293,10 @@
       <c r="E203" t="n">
         <v>3280815</v>
       </c>
-      <c r="F203" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G203" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H203" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>6658</v>
+        <v>6700</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -6145,19 +4312,10 @@
       <c r="E204" t="n">
         <v>3280815</v>
       </c>
-      <c r="F204" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G204" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H204" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>6659</v>
+        <v>6701</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6173,19 +4331,10 @@
       <c r="E205" t="n">
         <v>3280815</v>
       </c>
-      <c r="F205" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G205" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H205" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>6660</v>
+        <v>6702</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -6201,19 +4350,10 @@
       <c r="E206" t="n">
         <v>3280815</v>
       </c>
-      <c r="F206" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G206" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H206" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>6661</v>
+        <v>6703</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -6229,19 +4369,10 @@
       <c r="E207" t="n">
         <v>3280815</v>
       </c>
-      <c r="F207" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G207" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H207" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>6662</v>
+        <v>6704</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -6257,19 +4388,10 @@
       <c r="E208" t="n">
         <v>3280815</v>
       </c>
-      <c r="F208" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G208" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H208" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>6663</v>
+        <v>6705</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -6285,19 +4407,10 @@
       <c r="E209" t="n">
         <v>3280815</v>
       </c>
-      <c r="F209" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G209" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H209" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>6664</v>
+        <v>6706</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -6313,19 +4426,10 @@
       <c r="E210" t="n">
         <v>3280815</v>
       </c>
-      <c r="F210" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G210" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H210" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>6665</v>
+        <v>6707</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -6341,19 +4445,10 @@
       <c r="E211" t="n">
         <v>3280815</v>
       </c>
-      <c r="F211" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G211" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H211" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>6666</v>
+        <v>6708</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -6369,19 +4464,10 @@
       <c r="E212" t="n">
         <v>3280815</v>
       </c>
-      <c r="F212" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G212" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H212" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>6667</v>
+        <v>6709</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -6397,19 +4483,10 @@
       <c r="E213" t="n">
         <v>3280815</v>
       </c>
-      <c r="F213" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G213" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H213" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>6668</v>
+        <v>6710</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -6425,19 +4502,10 @@
       <c r="E214" t="n">
         <v>3280815</v>
       </c>
-      <c r="F214" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G214" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H214" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>6669</v>
+        <v>6711</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -6453,19 +4521,10 @@
       <c r="E215" t="n">
         <v>3280815</v>
       </c>
-      <c r="F215" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G215" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H215" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>6670</v>
+        <v>6712</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -6481,19 +4540,10 @@
       <c r="E216" t="n">
         <v>3280815</v>
       </c>
-      <c r="F216" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G216" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H216" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>6671</v>
+        <v>6713</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -6509,19 +4559,10 @@
       <c r="E217" t="n">
         <v>3280815</v>
       </c>
-      <c r="F217" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G217" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H217" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>6672</v>
+        <v>6714</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -6537,19 +4578,10 @@
       <c r="E218" t="n">
         <v>3280815</v>
       </c>
-      <c r="F218" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G218" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H218" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>6673</v>
+        <v>6715</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -6565,19 +4597,10 @@
       <c r="E219" t="n">
         <v>3280815</v>
       </c>
-      <c r="F219" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G219" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H219" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>6674</v>
+        <v>6716</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -6593,19 +4616,10 @@
       <c r="E220" t="n">
         <v>3280815</v>
       </c>
-      <c r="F220" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G220" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H220" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>6675</v>
+        <v>6717</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6621,19 +4635,10 @@
       <c r="E221" t="n">
         <v>3280815</v>
       </c>
-      <c r="F221" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G221" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H221" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>6676</v>
+        <v>6718</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -6649,19 +4654,10 @@
       <c r="E222" t="n">
         <v>3280815</v>
       </c>
-      <c r="F222" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G222" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H222" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>6677</v>
+        <v>6719</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -6677,19 +4673,10 @@
       <c r="E223" t="n">
         <v>3280815</v>
       </c>
-      <c r="F223" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G223" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H223" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>6678</v>
+        <v>6720</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6705,19 +4692,10 @@
       <c r="E224" t="n">
         <v>3280815</v>
       </c>
-      <c r="F224" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G224" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H224" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>6679</v>
+        <v>6721</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -6733,19 +4711,10 @@
       <c r="E225" t="n">
         <v>3280815</v>
       </c>
-      <c r="F225" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G225" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H225" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>6680</v>
+        <v>6722</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6761,19 +4730,10 @@
       <c r="E226" t="n">
         <v>3280815</v>
       </c>
-      <c r="F226" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G226" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H226" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>6681</v>
+        <v>6723</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -6789,19 +4749,10 @@
       <c r="E227" t="n">
         <v>3280815</v>
       </c>
-      <c r="F227" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G227" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H227" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>6682</v>
+        <v>6724</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6817,19 +4768,10 @@
       <c r="E228" t="n">
         <v>3280815</v>
       </c>
-      <c r="F228" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G228" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H228" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>6683</v>
+        <v>6725</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6845,19 +4787,10 @@
       <c r="E229" t="n">
         <v>3280815</v>
       </c>
-      <c r="F229" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G229" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H229" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>6684</v>
+        <v>6726</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -6873,19 +4806,10 @@
       <c r="E230" t="n">
         <v>3280815</v>
       </c>
-      <c r="F230" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G230" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H230" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>6685</v>
+        <v>6727</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -6901,19 +4825,10 @@
       <c r="E231" t="n">
         <v>3280815</v>
       </c>
-      <c r="F231" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G231" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H231" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>6686</v>
+        <v>6728</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -6929,19 +4844,10 @@
       <c r="E232" t="n">
         <v>3280815</v>
       </c>
-      <c r="F232" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G232" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H232" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>6687</v>
+        <v>6729</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6957,19 +4863,10 @@
       <c r="E233" t="n">
         <v>3280815</v>
       </c>
-      <c r="F233" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G233" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H233" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>6688</v>
+        <v>6730</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -6985,19 +4882,10 @@
       <c r="E234" t="n">
         <v>3280815</v>
       </c>
-      <c r="F234" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G234" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H234" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>6689</v>
+        <v>6731</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -7013,19 +4901,10 @@
       <c r="E235" t="n">
         <v>3280815</v>
       </c>
-      <c r="F235" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G235" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H235" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>6690</v>
+        <v>6732</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -7041,19 +4920,10 @@
       <c r="E236" t="n">
         <v>3280815</v>
       </c>
-      <c r="F236" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G236" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H236" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>6691</v>
+        <v>6733</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -7069,19 +4939,10 @@
       <c r="E237" t="n">
         <v>3280815</v>
       </c>
-      <c r="F237" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G237" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H237" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>6692</v>
+        <v>6734</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -7097,19 +4958,10 @@
       <c r="E238" t="n">
         <v>3280815</v>
       </c>
-      <c r="F238" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G238" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H238" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>6693</v>
+        <v>6735</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -7125,19 +4977,10 @@
       <c r="E239" t="n">
         <v>3280815</v>
       </c>
-      <c r="F239" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G239" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H239" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>6694</v>
+        <v>6736</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -7153,19 +4996,10 @@
       <c r="E240" t="n">
         <v>3280815</v>
       </c>
-      <c r="F240" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G240" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H240" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>6695</v>
+        <v>6737</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -7181,19 +5015,10 @@
       <c r="E241" t="n">
         <v>3280815</v>
       </c>
-      <c r="F241" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G241" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H241" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>6696</v>
+        <v>6738</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -7209,19 +5034,10 @@
       <c r="E242" t="n">
         <v>3280815</v>
       </c>
-      <c r="F242" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G242" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H242" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>6697</v>
+        <v>6739</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -7237,19 +5053,10 @@
       <c r="E243" t="n">
         <v>3280815</v>
       </c>
-      <c r="F243" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G243" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H243" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>6698</v>
+        <v>6740</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -7265,19 +5072,10 @@
       <c r="E244" t="n">
         <v>3280815</v>
       </c>
-      <c r="F244" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G244" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H244" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>6699</v>
+        <v>6741</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -7293,19 +5091,10 @@
       <c r="E245" t="n">
         <v>3280815</v>
       </c>
-      <c r="F245" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G245" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H245" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>6700</v>
+        <v>6742</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -7321,19 +5110,10 @@
       <c r="E246" t="n">
         <v>3280815</v>
       </c>
-      <c r="F246" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G246" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H246" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>6701</v>
+        <v>6743</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -7349,19 +5129,10 @@
       <c r="E247" t="n">
         <v>3280815</v>
       </c>
-      <c r="F247" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G247" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H247" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>6702</v>
+        <v>6744</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -7377,19 +5148,10 @@
       <c r="E248" t="n">
         <v>3280815</v>
       </c>
-      <c r="F248" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G248" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H248" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>6703</v>
+        <v>6745</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -7405,19 +5167,10 @@
       <c r="E249" t="n">
         <v>3280815</v>
       </c>
-      <c r="F249" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G249" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H249" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>6704</v>
+        <v>6746</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -7433,19 +5186,10 @@
       <c r="E250" t="n">
         <v>3280815</v>
       </c>
-      <c r="F250" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G250" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H250" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>6705</v>
+        <v>6747</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -7461,19 +5205,10 @@
       <c r="E251" t="n">
         <v>3280815</v>
       </c>
-      <c r="F251" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G251" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H251" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>6706</v>
+        <v>6748</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -7489,19 +5224,10 @@
       <c r="E252" t="n">
         <v>3280815</v>
       </c>
-      <c r="F252" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G252" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H252" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>6707</v>
+        <v>6749</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -7517,19 +5243,10 @@
       <c r="E253" t="n">
         <v>3280815</v>
       </c>
-      <c r="F253" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G253" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H253" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>6708</v>
+        <v>6750</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -7545,19 +5262,10 @@
       <c r="E254" t="n">
         <v>3280815</v>
       </c>
-      <c r="F254" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G254" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H254" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>6709</v>
+        <v>6751</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -7573,19 +5281,10 @@
       <c r="E255" t="n">
         <v>3280815</v>
       </c>
-      <c r="F255" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G255" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H255" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>6710</v>
+        <v>6752</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -7601,19 +5300,10 @@
       <c r="E256" t="n">
         <v>3280815</v>
       </c>
-      <c r="F256" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G256" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H256" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>6711</v>
+        <v>6753</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7629,19 +5319,10 @@
       <c r="E257" t="n">
         <v>3280815</v>
       </c>
-      <c r="F257" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G257" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H257" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>6712</v>
+        <v>6754</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -7657,19 +5338,10 @@
       <c r="E258" t="n">
         <v>3280815</v>
       </c>
-      <c r="F258" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G258" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H258" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>6713</v>
+        <v>6755</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -7685,19 +5357,10 @@
       <c r="E259" t="n">
         <v>3280815</v>
       </c>
-      <c r="F259" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G259" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H259" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>6714</v>
+        <v>6756</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -7713,19 +5376,10 @@
       <c r="E260" t="n">
         <v>3280815</v>
       </c>
-      <c r="F260" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G260" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H260" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>6715</v>
+        <v>6757</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -7741,19 +5395,10 @@
       <c r="E261" t="n">
         <v>3280815</v>
       </c>
-      <c r="F261" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G261" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H261" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>6716</v>
+        <v>6758</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -7769,19 +5414,10 @@
       <c r="E262" t="n">
         <v>3280815</v>
       </c>
-      <c r="F262" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G262" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H262" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>6717</v>
+        <v>6759</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -7797,19 +5433,10 @@
       <c r="E263" t="n">
         <v>3280815</v>
       </c>
-      <c r="F263" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G263" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H263" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>6718</v>
+        <v>6760</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -7825,19 +5452,10 @@
       <c r="E264" t="n">
         <v>3280815</v>
       </c>
-      <c r="F264" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G264" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H264" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>6719</v>
+        <v>6761</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -7853,19 +5471,10 @@
       <c r="E265" t="n">
         <v>3280815</v>
       </c>
-      <c r="F265" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G265" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H265" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>6720</v>
+        <v>6762</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7881,19 +5490,10 @@
       <c r="E266" t="n">
         <v>3280815</v>
       </c>
-      <c r="F266" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G266" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H266" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>6721</v>
+        <v>6763</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -7909,19 +5509,10 @@
       <c r="E267" t="n">
         <v>3280815</v>
       </c>
-      <c r="F267" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G267" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H267" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>6722</v>
+        <v>6764</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -7937,19 +5528,10 @@
       <c r="E268" t="n">
         <v>3280815</v>
       </c>
-      <c r="F268" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G268" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H268" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>6723</v>
+        <v>6765</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -7965,19 +5547,10 @@
       <c r="E269" t="n">
         <v>3280815</v>
       </c>
-      <c r="F269" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G269" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H269" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>6724</v>
+        <v>6766</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -7993,19 +5566,10 @@
       <c r="E270" t="n">
         <v>3280815</v>
       </c>
-      <c r="F270" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G270" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H270" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>6725</v>
+        <v>6767</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -8021,19 +5585,10 @@
       <c r="E271" t="n">
         <v>3280815</v>
       </c>
-      <c r="F271" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G271" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H271" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>6726</v>
+        <v>6768</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -8049,19 +5604,10 @@
       <c r="E272" t="n">
         <v>3280815</v>
       </c>
-      <c r="F272" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G272" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H272" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>6727</v>
+        <v>6769</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -8077,19 +5623,10 @@
       <c r="E273" t="n">
         <v>3280815</v>
       </c>
-      <c r="F273" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G273" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H273" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>6728</v>
+        <v>6770</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -8105,19 +5642,10 @@
       <c r="E274" t="n">
         <v>3280815</v>
       </c>
-      <c r="F274" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G274" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H274" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>6729</v>
+        <v>6771</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -8133,19 +5661,10 @@
       <c r="E275" t="n">
         <v>3280815</v>
       </c>
-      <c r="F275" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G275" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H275" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>6730</v>
+        <v>6772</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -8161,19 +5680,10 @@
       <c r="E276" t="n">
         <v>3280815</v>
       </c>
-      <c r="F276" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G276" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H276" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>6731</v>
+        <v>6773</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -8189,19 +5699,10 @@
       <c r="E277" t="n">
         <v>3280815</v>
       </c>
-      <c r="F277" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G277" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H277" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>6732</v>
+        <v>6774</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -8217,19 +5718,10 @@
       <c r="E278" t="n">
         <v>3280815</v>
       </c>
-      <c r="F278" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G278" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H278" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>6733</v>
+        <v>6775</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -8245,19 +5737,10 @@
       <c r="E279" t="n">
         <v>3280815</v>
       </c>
-      <c r="F279" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G279" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H279" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>6734</v>
+        <v>6776</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -8273,19 +5756,10 @@
       <c r="E280" t="n">
         <v>3280815</v>
       </c>
-      <c r="F280" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G280" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H280" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>6735</v>
+        <v>6777</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -8301,19 +5775,10 @@
       <c r="E281" t="n">
         <v>3280815</v>
       </c>
-      <c r="F281" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G281" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H281" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>6736</v>
+        <v>6778</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -8329,19 +5794,10 @@
       <c r="E282" t="n">
         <v>3280815</v>
       </c>
-      <c r="F282" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G282" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H282" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>6737</v>
+        <v>6779</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -8357,19 +5813,10 @@
       <c r="E283" t="n">
         <v>3280815</v>
       </c>
-      <c r="F283" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G283" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H283" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>6738</v>
+        <v>6780</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -8385,19 +5832,10 @@
       <c r="E284" t="n">
         <v>3280815</v>
       </c>
-      <c r="F284" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G284" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H284" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>6739</v>
+        <v>6781</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -8413,19 +5851,10 @@
       <c r="E285" t="n">
         <v>3280815</v>
       </c>
-      <c r="F285" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G285" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H285" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>6740</v>
+        <v>6782</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -8441,19 +5870,10 @@
       <c r="E286" t="n">
         <v>3280815</v>
       </c>
-      <c r="F286" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G286" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H286" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>6741</v>
+        <v>6783</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -8469,19 +5889,10 @@
       <c r="E287" t="n">
         <v>3280815</v>
       </c>
-      <c r="F287" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G287" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H287" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>6742</v>
+        <v>6784</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -8497,19 +5908,10 @@
       <c r="E288" t="n">
         <v>3280815</v>
       </c>
-      <c r="F288" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G288" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H288" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>6743</v>
+        <v>6785</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -8525,19 +5927,10 @@
       <c r="E289" t="n">
         <v>3280815</v>
       </c>
-      <c r="F289" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G289" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H289" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>6744</v>
+        <v>6786</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -8553,19 +5946,10 @@
       <c r="E290" t="n">
         <v>3280815</v>
       </c>
-      <c r="F290" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G290" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H290" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>6745</v>
+        <v>6787</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -8581,19 +5965,10 @@
       <c r="E291" t="n">
         <v>3280815</v>
       </c>
-      <c r="F291" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G291" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H291" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>6746</v>
+        <v>6788</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -8609,19 +5984,10 @@
       <c r="E292" t="n">
         <v>3280815</v>
       </c>
-      <c r="F292" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G292" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H292" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>6747</v>
+        <v>6789</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -8637,19 +6003,10 @@
       <c r="E293" t="n">
         <v>3280815</v>
       </c>
-      <c r="F293" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G293" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H293" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>6748</v>
+        <v>6790</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -8665,19 +6022,10 @@
       <c r="E294" t="n">
         <v>3280815</v>
       </c>
-      <c r="F294" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G294" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H294" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>6749</v>
+        <v>6791</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -8693,19 +6041,10 @@
       <c r="E295" t="n">
         <v>3280815</v>
       </c>
-      <c r="F295" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G295" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H295" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>6750</v>
+        <v>6792</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -8721,19 +6060,10 @@
       <c r="E296" t="n">
         <v>3280815</v>
       </c>
-      <c r="F296" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G296" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H296" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>6751</v>
+        <v>6793</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -8749,19 +6079,10 @@
       <c r="E297" t="n">
         <v>3280815</v>
       </c>
-      <c r="F297" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G297" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H297" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>6752</v>
+        <v>6794</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -8777,19 +6098,10 @@
       <c r="E298" t="n">
         <v>3280815</v>
       </c>
-      <c r="F298" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G298" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H298" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>6753</v>
+        <v>6795</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -8805,19 +6117,10 @@
       <c r="E299" t="n">
         <v>3280815</v>
       </c>
-      <c r="F299" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G299" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H299" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>6754</v>
+        <v>6796</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -8833,19 +6136,10 @@
       <c r="E300" t="n">
         <v>3280815</v>
       </c>
-      <c r="F300" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G300" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H300" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>6755</v>
+        <v>6797</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -8861,19 +6155,10 @@
       <c r="E301" t="n">
         <v>3280815</v>
       </c>
-      <c r="F301" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G301" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H301" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>6756</v>
+        <v>6798</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -8889,19 +6174,10 @@
       <c r="E302" t="n">
         <v>3280815</v>
       </c>
-      <c r="F302" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G302" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H302" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>6757</v>
+        <v>6799</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -8917,19 +6193,10 @@
       <c r="E303" t="n">
         <v>3280815</v>
       </c>
-      <c r="F303" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G303" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H303" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>6758</v>
+        <v>6800</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -8945,19 +6212,10 @@
       <c r="E304" t="n">
         <v>3280815</v>
       </c>
-      <c r="F304" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G304" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H304" t="n">
-        <v>16.569</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>6759</v>
+        <v>6801</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -8973,14 +6231,43 @@
       <c r="E305" t="n">
         <v>3280815</v>
       </c>
-      <c r="F305" t="n">
-        <v>68.496</v>
-      </c>
-      <c r="G305" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="H305" t="n">
-        <v>16.569</v>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>6802</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2021-01-03</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>112645</v>
+      </c>
+      <c r="D306" t="n">
+        <v>502</v>
+      </c>
+      <c r="E306" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>6803</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2021-01-04</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>112645</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>3280815</v>
       </c>
     </row>
   </sheetData>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D308"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>stringency_index</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>population</t>
         </is>
       </c>
@@ -469,6 +474,9 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="E2" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -485,6 +493,9 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="E3" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -501,6 +512,9 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="E4" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -517,6 +531,9 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="E5" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -533,6 +550,9 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="E6" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -549,6 +569,9 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="E7" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -565,6 +588,9 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="E8" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -581,6 +607,9 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="E9" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -597,6 +626,9 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="E10" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -613,6 +645,9 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="E11" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -629,6 +664,9 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
+        <v>40.28</v>
+      </c>
+      <c r="E12" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -645,6 +683,9 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
+        <v>45.83</v>
+      </c>
+      <c r="E13" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -661,6 +702,9 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
+        <v>70.83</v>
+      </c>
+      <c r="E14" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -677,6 +721,9 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="E15" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -693,6 +740,9 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
+        <v>77.78</v>
+      </c>
+      <c r="E16" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -709,6 +759,9 @@
         <v>26</v>
       </c>
       <c r="D17" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E17" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -725,6 +778,9 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E18" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -741,6 +797,9 @@
         <v>33</v>
       </c>
       <c r="D19" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E19" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -757,6 +816,9 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E20" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -773,6 +835,9 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E21" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -789,6 +854,9 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E22" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -805,6 +873,9 @@
         <v>15</v>
       </c>
       <c r="D23" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E23" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -821,6 +892,9 @@
         <v>46</v>
       </c>
       <c r="D24" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E24" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -837,6 +911,9 @@
         <v>21</v>
       </c>
       <c r="D25" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E25" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -853,6 +930,9 @@
         <v>65</v>
       </c>
       <c r="D26" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E26" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -869,6 +949,9 @@
         <v>45</v>
       </c>
       <c r="D27" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E27" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -885,6 +968,9 @@
         <v>52</v>
       </c>
       <c r="D28" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E28" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -901,6 +987,9 @@
         <v>39</v>
       </c>
       <c r="D29" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E29" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -917,6 +1006,9 @@
         <v>74</v>
       </c>
       <c r="D30" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E30" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -933,6 +1025,9 @@
         <v>46</v>
       </c>
       <c r="D31" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E31" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -949,6 +1044,9 @@
         <v>45</v>
       </c>
       <c r="D32" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E32" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -965,6 +1063,9 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E33" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -981,6 +1082,9 @@
         <v>20</v>
       </c>
       <c r="D34" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E34" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -997,6 +1101,9 @@
         <v>90</v>
       </c>
       <c r="D35" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E35" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1013,6 +1120,9 @@
         <v>40</v>
       </c>
       <c r="D36" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E36" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1029,6 +1139,9 @@
         <v>54</v>
       </c>
       <c r="D37" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="E37" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1045,6 +1158,9 @@
         <v>43</v>
       </c>
       <c r="D38" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E38" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1061,6 +1177,9 @@
         <v>45</v>
       </c>
       <c r="D39" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E39" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1077,6 +1196,9 @@
         <v>63</v>
       </c>
       <c r="D40" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E40" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1093,6 +1215,9 @@
         <v>28</v>
       </c>
       <c r="D41" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E41" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1109,6 +1234,9 @@
         <v>46</v>
       </c>
       <c r="D42" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E42" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1125,6 +1253,9 @@
         <v>27</v>
       </c>
       <c r="D43" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E43" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1141,6 +1272,9 @@
         <v>57</v>
       </c>
       <c r="D44" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E44" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1157,6 +1291,9 @@
         <v>47</v>
       </c>
       <c r="D45" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E45" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1173,6 +1310,9 @@
         <v>54</v>
       </c>
       <c r="D46" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E46" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1189,6 +1329,9 @@
         <v>17</v>
       </c>
       <c r="D47" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E47" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1205,6 +1348,9 @@
         <v>24</v>
       </c>
       <c r="D48" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E48" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1221,6 +1367,9 @@
         <v>33</v>
       </c>
       <c r="D49" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E49" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1237,6 +1386,9 @@
         <v>26</v>
       </c>
       <c r="D50" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E50" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1253,6 +1405,9 @@
         <v>45</v>
       </c>
       <c r="D51" t="n">
+        <v>92.59</v>
+      </c>
+      <c r="E51" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1269,6 +1424,9 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E52" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1285,6 +1443,9 @@
         <v>65</v>
       </c>
       <c r="D53" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E53" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1301,6 +1462,9 @@
         <v>30</v>
       </c>
       <c r="D54" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E54" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1317,6 +1481,9 @@
         <v>49</v>
       </c>
       <c r="D55" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E55" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1333,6 +1500,9 @@
         <v>20</v>
       </c>
       <c r="D56" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E56" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1349,6 +1519,9 @@
         <v>92</v>
       </c>
       <c r="D57" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E57" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1365,6 +1538,9 @@
         <v>80</v>
       </c>
       <c r="D58" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E58" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1381,6 +1557,9 @@
         <v>24</v>
       </c>
       <c r="D59" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E59" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1397,6 +1576,9 @@
         <v>58</v>
       </c>
       <c r="D60" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E60" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1413,6 +1595,9 @@
         <v>18</v>
       </c>
       <c r="D61" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E61" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1429,6 +1614,9 @@
         <v>69</v>
       </c>
       <c r="D62" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E62" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1445,6 +1633,9 @@
         <v>20</v>
       </c>
       <c r="D63" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E63" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1461,6 +1652,9 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E64" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1477,6 +1671,9 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E65" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1493,6 +1690,9 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E66" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1509,6 +1709,9 @@
         <v>20</v>
       </c>
       <c r="D67" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E67" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1525,6 +1728,9 @@
         <v>27</v>
       </c>
       <c r="D68" t="n">
+        <v>90.73999999999999</v>
+      </c>
+      <c r="E68" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1541,6 +1747,9 @@
         <v>24</v>
       </c>
       <c r="D69" t="n">
+        <v>81.48</v>
+      </c>
+      <c r="E69" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1557,6 +1766,9 @@
         <v>17</v>
       </c>
       <c r="D70" t="n">
+        <v>81.48</v>
+      </c>
+      <c r="E70" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1573,6 +1785,9 @@
         <v>23</v>
       </c>
       <c r="D71" t="n">
+        <v>81.48</v>
+      </c>
+      <c r="E71" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1589,6 +1804,9 @@
         <v>37</v>
       </c>
       <c r="D72" t="n">
+        <v>79.63</v>
+      </c>
+      <c r="E72" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1605,6 +1823,9 @@
         <v>18</v>
       </c>
       <c r="D73" t="n">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="E73" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1621,6 +1842,9 @@
         <v>31</v>
       </c>
       <c r="D74" t="n">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="E74" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1637,6 +1861,9 @@
         <v>23</v>
       </c>
       <c r="D75" t="n">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="E75" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1653,6 +1880,9 @@
         <v>14</v>
       </c>
       <c r="D76" t="n">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="E76" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1669,6 +1899,9 @@
         <v>17</v>
       </c>
       <c r="D77" t="n">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="E77" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1685,6 +1918,9 @@
         <v>17</v>
       </c>
       <c r="D78" t="n">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="E78" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1701,6 +1937,9 @@
         <v>12</v>
       </c>
       <c r="D79" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E79" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1717,6 +1956,9 @@
         <v>22</v>
       </c>
       <c r="D80" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E80" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1733,6 +1975,9 @@
         <v>19</v>
       </c>
       <c r="D81" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E81" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1749,6 +1994,9 @@
         <v>10</v>
       </c>
       <c r="D82" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E82" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1765,6 +2013,9 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E83" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1781,6 +2032,9 @@
         <v>10</v>
       </c>
       <c r="D84" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E84" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1797,6 +2051,9 @@
         <v>19</v>
       </c>
       <c r="D85" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E85" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1813,6 +2070,9 @@
         <v>27</v>
       </c>
       <c r="D86" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E86" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1829,6 +2089,9 @@
         <v>23</v>
       </c>
       <c r="D87" t="n">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="E87" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1845,6 +2108,9 @@
         <v>9</v>
       </c>
       <c r="D88" t="n">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="E88" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1861,6 +2127,9 @@
         <v>16</v>
       </c>
       <c r="D89" t="n">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="E89" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1877,6 +2146,9 @@
         <v>14</v>
       </c>
       <c r="D90" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E90" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1893,6 +2165,9 @@
         <v>11</v>
       </c>
       <c r="D91" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E91" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1909,6 +2184,9 @@
         <v>16</v>
       </c>
       <c r="D92" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E92" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1925,6 +2203,9 @@
         <v>43</v>
       </c>
       <c r="D93" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E93" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1941,6 +2222,9 @@
         <v>12</v>
       </c>
       <c r="D94" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E94" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1957,6 +2241,9 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E95" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1973,6 +2260,9 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E96" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1989,6 +2279,9 @@
         <v>98</v>
       </c>
       <c r="D97" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E97" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2005,6 +2298,9 @@
         <v>24</v>
       </c>
       <c r="D98" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E98" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2021,6 +2317,9 @@
         <v>47</v>
       </c>
       <c r="D99" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E99" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2037,6 +2336,9 @@
         <v>57</v>
       </c>
       <c r="D100" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E100" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2053,6 +2355,9 @@
         <v>61</v>
       </c>
       <c r="D101" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="E101" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2069,6 +2374,9 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E102" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2085,6 +2393,9 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E103" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2101,6 +2412,9 @@
         <v>147</v>
       </c>
       <c r="D104" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E104" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2117,6 +2431,9 @@
         <v>45</v>
       </c>
       <c r="D105" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E105" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2133,6 +2450,9 @@
         <v>56</v>
       </c>
       <c r="D106" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E106" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2149,6 +2469,9 @@
         <v>33</v>
       </c>
       <c r="D107" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E107" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2165,6 +2488,9 @@
         <v>99</v>
       </c>
       <c r="D108" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E108" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2181,6 +2507,9 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E109" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2197,6 +2526,9 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E110" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2213,6 +2545,9 @@
         <v>252</v>
       </c>
       <c r="D111" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E111" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2229,6 +2564,9 @@
         <v>63</v>
       </c>
       <c r="D112" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E112" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2245,6 +2583,9 @@
         <v>88</v>
       </c>
       <c r="D113" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E113" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2261,6 +2602,9 @@
         <v>120</v>
       </c>
       <c r="D114" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E114" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2277,6 +2621,9 @@
         <v>139</v>
       </c>
       <c r="D115" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E115" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2293,6 +2640,9 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E116" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2309,6 +2659,9 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E117" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2325,6 +2678,9 @@
         <v>390</v>
       </c>
       <c r="D118" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E118" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2341,6 +2697,9 @@
         <v>128</v>
       </c>
       <c r="D119" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E119" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2357,6 +2716,9 @@
         <v>153</v>
       </c>
       <c r="D120" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E120" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2373,6 +2735,9 @@
         <v>182</v>
       </c>
       <c r="D121" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E121" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2389,6 +2754,9 @@
         <v>174</v>
       </c>
       <c r="D122" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E122" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2405,6 +2773,9 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>51.85</v>
+      </c>
+      <c r="E123" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2421,6 +2792,9 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E124" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2437,6 +2811,9 @@
         <v>496</v>
       </c>
       <c r="D125" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E125" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2453,6 +2830,9 @@
         <v>163</v>
       </c>
       <c r="D126" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E126" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2469,6 +2849,9 @@
         <v>248</v>
       </c>
       <c r="D127" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E127" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2485,6 +2868,9 @@
         <v>217</v>
       </c>
       <c r="D128" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E128" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2501,6 +2887,9 @@
         <v>316</v>
       </c>
       <c r="D129" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E129" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2517,6 +2906,9 @@
         <v>317</v>
       </c>
       <c r="D130" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E130" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2533,6 +2925,9 @@
         <v>158</v>
       </c>
       <c r="D131" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E131" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2549,6 +2944,9 @@
         <v>104</v>
       </c>
       <c r="D132" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E132" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2565,6 +2963,9 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E133" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2581,6 +2982,9 @@
         <v>430</v>
       </c>
       <c r="D134" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E134" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2597,6 +3001,9 @@
         <v>270</v>
       </c>
       <c r="D135" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E135" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2613,6 +3020,9 @@
         <v>227</v>
       </c>
       <c r="D136" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E136" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2629,6 +3039,9 @@
         <v>253</v>
       </c>
       <c r="D137" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E137" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2645,6 +3058,9 @@
         <v>179</v>
       </c>
       <c r="D138" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E138" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2661,6 +3077,9 @@
         <v>139</v>
       </c>
       <c r="D139" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E139" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2677,6 +3096,9 @@
         <v>308</v>
       </c>
       <c r="D140" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E140" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2693,6 +3115,9 @@
         <v>328</v>
       </c>
       <c r="D141" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E141" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2709,6 +3134,9 @@
         <v>347</v>
       </c>
       <c r="D142" t="n">
+        <v>56.48</v>
+      </c>
+      <c r="E142" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2725,6 +3153,9 @@
         <v>305</v>
       </c>
       <c r="D143" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E143" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2741,6 +3172,9 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E144" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2757,6 +3191,9 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E145" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2773,6 +3210,9 @@
         <v>731</v>
       </c>
       <c r="D146" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E146" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2789,6 +3229,9 @@
         <v>268</v>
       </c>
       <c r="D147" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E147" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2805,6 +3248,9 @@
         <v>361</v>
       </c>
       <c r="D148" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E148" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2821,6 +3267,9 @@
         <v>317</v>
       </c>
       <c r="D149" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E149" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2837,6 +3286,9 @@
         <v>432</v>
       </c>
       <c r="D150" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E150" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2853,6 +3305,9 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E151" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2869,6 +3324,9 @@
         <v>420</v>
       </c>
       <c r="D152" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E152" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2885,6 +3343,9 @@
         <v>166</v>
       </c>
       <c r="D153" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E153" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2901,6 +3362,9 @@
         <v>394</v>
       </c>
       <c r="D154" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E154" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2917,6 +3381,9 @@
         <v>282</v>
       </c>
       <c r="D155" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E155" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2933,6 +3400,9 @@
         <v>258</v>
       </c>
       <c r="D156" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E156" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2949,6 +3419,9 @@
         <v>291</v>
       </c>
       <c r="D157" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E157" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2965,6 +3438,9 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E158" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2981,6 +3457,9 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E159" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2997,6 +3476,9 @@
         <v>811</v>
       </c>
       <c r="D160" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E160" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3013,6 +3495,9 @@
         <v>210</v>
       </c>
       <c r="D161" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E161" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3029,6 +3514,9 @@
         <v>253</v>
       </c>
       <c r="D162" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E162" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3045,6 +3533,9 @@
         <v>223</v>
       </c>
       <c r="D163" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E163" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3061,6 +3552,9 @@
         <v>351</v>
       </c>
       <c r="D164" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E164" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3077,6 +3571,9 @@
         <v>266</v>
       </c>
       <c r="D165" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E165" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3093,6 +3590,9 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E166" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3109,6 +3609,9 @@
         <v>310</v>
       </c>
       <c r="D167" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E167" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3125,6 +3628,9 @@
         <v>240</v>
       </c>
       <c r="D168" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E168" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3141,6 +3647,9 @@
         <v>340</v>
       </c>
       <c r="D169" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E169" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3157,6 +3666,9 @@
         <v>338</v>
       </c>
       <c r="D170" t="n">
+        <v>59.26</v>
+      </c>
+      <c r="E170" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3173,6 +3685,9 @@
         <v>367</v>
       </c>
       <c r="D171" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E171" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3189,6 +3704,9 @@
         <v>319</v>
       </c>
       <c r="D172" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E172" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3205,6 +3723,9 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E173" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3221,6 +3742,9 @@
         <v>314</v>
       </c>
       <c r="D174" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E174" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3237,6 +3761,9 @@
         <v>297</v>
       </c>
       <c r="D175" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E175" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3253,6 +3780,9 @@
         <v>283</v>
       </c>
       <c r="D176" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E176" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3269,6 +3799,9 @@
         <v>311</v>
       </c>
       <c r="D177" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E177" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3285,6 +3818,9 @@
         <v>294</v>
       </c>
       <c r="D178" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E178" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3301,6 +3837,9 @@
         <v>336</v>
       </c>
       <c r="D179" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E179" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3317,6 +3856,9 @@
         <v>243</v>
       </c>
       <c r="D180" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="E180" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3333,6 +3875,9 @@
         <v>171</v>
       </c>
       <c r="D181" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E181" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3349,6 +3894,9 @@
         <v>270</v>
       </c>
       <c r="D182" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E182" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3365,6 +3913,9 @@
         <v>283</v>
       </c>
       <c r="D183" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E183" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3381,6 +3932,9 @@
         <v>287</v>
       </c>
       <c r="D184" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E184" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3397,6 +3951,9 @@
         <v>338</v>
       </c>
       <c r="D185" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E185" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3413,6 +3970,9 @@
         <v>297</v>
       </c>
       <c r="D186" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E186" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3429,6 +3989,9 @@
         <v>121</v>
       </c>
       <c r="D187" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="E187" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3445,6 +4008,9 @@
         <v>100</v>
       </c>
       <c r="D188" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E188" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3461,6 +4027,9 @@
         <v>301</v>
       </c>
       <c r="D189" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E189" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3477,6 +4046,9 @@
         <v>297</v>
       </c>
       <c r="D190" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E190" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3493,6 +4065,9 @@
         <v>286</v>
       </c>
       <c r="D191" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E191" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3509,6 +4084,9 @@
         <v>290</v>
       </c>
       <c r="D192" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E192" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3525,6 +4103,9 @@
         <v>304</v>
       </c>
       <c r="D193" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E193" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3541,6 +4122,9 @@
         <v>327</v>
       </c>
       <c r="D194" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E194" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3557,6 +4141,9 @@
         <v>170</v>
       </c>
       <c r="D195" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E195" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3573,6 +4160,9 @@
         <v>294</v>
       </c>
       <c r="D196" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E196" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3589,6 +4179,9 @@
         <v>282</v>
       </c>
       <c r="D197" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E197" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3605,6 +4198,9 @@
         <v>394</v>
       </c>
       <c r="D198" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E198" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3621,6 +4217,9 @@
         <v>292</v>
       </c>
       <c r="D199" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E199" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3637,6 +4236,9 @@
         <v>320</v>
       </c>
       <c r="D200" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E200" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3653,6 +4255,9 @@
         <v>211</v>
       </c>
       <c r="D201" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E201" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3669,6 +4274,9 @@
         <v>93</v>
       </c>
       <c r="D202" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E202" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3685,6 +4293,9 @@
         <v>216</v>
       </c>
       <c r="D203" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E203" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3701,6 +4312,9 @@
         <v>344</v>
       </c>
       <c r="D204" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E204" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3717,6 +4331,9 @@
         <v>235</v>
       </c>
       <c r="D205" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E205" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3733,6 +4350,9 @@
         <v>248</v>
       </c>
       <c r="D206" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E206" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3749,6 +4369,9 @@
         <v>233</v>
       </c>
       <c r="D207" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E207" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3765,6 +4388,9 @@
         <v>123</v>
       </c>
       <c r="D208" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E208" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3781,6 +4407,9 @@
         <v>81</v>
       </c>
       <c r="D209" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E209" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3797,6 +4426,9 @@
         <v>225</v>
       </c>
       <c r="D210" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E210" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3813,6 +4445,9 @@
         <v>243</v>
       </c>
       <c r="D211" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E211" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3829,6 +4464,9 @@
         <v>280</v>
       </c>
       <c r="D212" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E212" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3845,6 +4483,9 @@
         <v>226</v>
       </c>
       <c r="D213" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E213" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3861,6 +4502,9 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E214" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3877,6 +4521,9 @@
         <v>379</v>
       </c>
       <c r="D215" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E215" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3893,6 +4540,9 @@
         <v>95</v>
       </c>
       <c r="D216" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E216" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3909,6 +4559,9 @@
         <v>261</v>
       </c>
       <c r="D217" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E217" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3925,6 +4578,9 @@
         <v>365</v>
       </c>
       <c r="D218" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E218" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3941,6 +4597,9 @@
         <v>453</v>
       </c>
       <c r="D219" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E219" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3957,6 +4616,9 @@
         <v>389</v>
       </c>
       <c r="D220" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E220" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3973,6 +4635,9 @@
         <v>428</v>
       </c>
       <c r="D221" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E221" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3989,6 +4654,9 @@
         <v>302</v>
       </c>
       <c r="D222" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E222" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4005,6 +4673,9 @@
         <v>190</v>
       </c>
       <c r="D223" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E223" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4021,6 +4692,9 @@
         <v>336</v>
       </c>
       <c r="D224" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E224" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4037,6 +4711,9 @@
         <v>482</v>
       </c>
       <c r="D225" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E225" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4053,6 +4730,9 @@
         <v>569</v>
       </c>
       <c r="D226" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E226" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4069,6 +4749,9 @@
         <v>621</v>
       </c>
       <c r="D227" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E227" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4085,6 +4768,9 @@
         <v>716</v>
       </c>
       <c r="D228" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E228" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4101,6 +4787,9 @@
         <v>551</v>
       </c>
       <c r="D229" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E229" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4117,6 +4806,9 @@
         <v>549</v>
       </c>
       <c r="D230" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E230" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4133,6 +4825,9 @@
         <v>728</v>
       </c>
       <c r="D231" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E231" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4149,6 +4844,9 @@
         <v>926</v>
       </c>
       <c r="D232" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E232" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4165,6 +4863,9 @@
         <v>999</v>
       </c>
       <c r="D233" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E233" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4181,6 +4882,9 @@
         <v>1179</v>
       </c>
       <c r="D234" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E234" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4197,6 +4901,9 @@
         <v>1265</v>
       </c>
       <c r="D235" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E235" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4213,6 +4920,9 @@
         <v>1135</v>
       </c>
       <c r="D236" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E236" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4229,6 +4939,9 @@
         <v>703</v>
       </c>
       <c r="D237" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E237" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4245,6 +4958,9 @@
         <v>1555</v>
       </c>
       <c r="D238" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E238" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4261,6 +4977,9 @@
         <v>1586</v>
       </c>
       <c r="D239" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E239" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4277,6 +4996,9 @@
         <v>1902</v>
       </c>
       <c r="D240" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E240" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4293,6 +5015,9 @@
         <v>1498</v>
       </c>
       <c r="D241" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E241" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4309,6 +5034,9 @@
         <v>1953</v>
       </c>
       <c r="D242" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E242" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4325,6 +5053,9 @@
         <v>1415</v>
       </c>
       <c r="D243" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E243" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4341,6 +5072,9 @@
         <v>764</v>
       </c>
       <c r="D244" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E244" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4357,6 +5091,9 @@
         <v>1553</v>
       </c>
       <c r="D245" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E245" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4373,6 +5110,9 @@
         <v>1776</v>
       </c>
       <c r="D246" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E246" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4389,6 +5129,9 @@
         <v>1908</v>
       </c>
       <c r="D247" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E247" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4405,6 +5148,9 @@
         <v>1921</v>
       </c>
       <c r="D248" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E248" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4421,6 +5167,9 @@
         <v>1785</v>
       </c>
       <c r="D249" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E249" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4437,6 +5186,9 @@
         <v>1211</v>
       </c>
       <c r="D250" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E250" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4453,6 +5205,9 @@
         <v>996</v>
       </c>
       <c r="D251" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E251" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4469,6 +5224,9 @@
         <v>1605</v>
       </c>
       <c r="D252" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="E252" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4485,6 +5243,9 @@
         <v>1541</v>
       </c>
       <c r="D253" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E253" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4501,6 +5262,9 @@
         <v>1728</v>
       </c>
       <c r="D254" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E254" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4517,6 +5281,9 @@
         <v>1332</v>
       </c>
       <c r="D255" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E255" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4533,6 +5300,9 @@
         <v>1275</v>
       </c>
       <c r="D256" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E256" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4549,6 +5319,9 @@
         <v>1056</v>
       </c>
       <c r="D257" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E257" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4565,6 +5338,9 @@
         <v>733</v>
       </c>
       <c r="D258" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="E258" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4581,6 +5357,9 @@
         <v>1255</v>
       </c>
       <c r="D259" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="E259" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4597,6 +5376,9 @@
         <v>1633</v>
       </c>
       <c r="D260" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="E260" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4613,6 +5395,9 @@
         <v>1180</v>
       </c>
       <c r="D261" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="E261" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4629,6 +5414,9 @@
         <v>1237</v>
       </c>
       <c r="D262" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="E262" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4645,6 +5433,9 @@
         <v>1315</v>
       </c>
       <c r="D263" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E263" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4661,6 +5452,9 @@
         <v>697</v>
       </c>
       <c r="D264" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E264" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4677,6 +5471,9 @@
         <v>547</v>
       </c>
       <c r="D265" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E265" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4693,6 +5490,9 @@
         <v>1186</v>
       </c>
       <c r="D266" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E266" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4709,6 +5509,9 @@
         <v>1589</v>
       </c>
       <c r="D267" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E267" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4725,6 +5528,9 @@
         <v>924</v>
       </c>
       <c r="D268" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E268" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4741,6 +5547,9 @@
         <v>1179</v>
       </c>
       <c r="D269" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E269" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4757,6 +5566,9 @@
         <v>1279</v>
       </c>
       <c r="D270" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E270" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4773,6 +5585,9 @@
         <v>664</v>
       </c>
       <c r="D271" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E271" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4789,6 +5604,9 @@
         <v>527</v>
       </c>
       <c r="D272" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E272" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4805,6 +5623,9 @@
         <v>1184</v>
       </c>
       <c r="D273" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E273" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4821,6 +5642,9 @@
         <v>1293</v>
       </c>
       <c r="D274" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E274" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4837,6 +5661,9 @@
         <v>1161</v>
       </c>
       <c r="D275" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E275" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4853,6 +5680,9 @@
         <v>1254</v>
       </c>
       <c r="D276" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E276" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4869,6 +5699,9 @@
         <v>975</v>
       </c>
       <c r="D277" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E277" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4885,6 +5718,9 @@
         <v>739</v>
       </c>
       <c r="D278" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E278" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4901,6 +5737,9 @@
         <v>437</v>
       </c>
       <c r="D279" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E279" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4917,6 +5756,9 @@
         <v>1077</v>
       </c>
       <c r="D280" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E280" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4933,6 +5775,9 @@
         <v>1296</v>
       </c>
       <c r="D281" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E281" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4949,6 +5794,9 @@
         <v>1286</v>
       </c>
       <c r="D282" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E282" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4965,6 +5813,9 @@
         <v>940</v>
       </c>
       <c r="D283" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E283" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4981,6 +5832,9 @@
         <v>763</v>
       </c>
       <c r="D284" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E284" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4997,6 +5851,9 @@
         <v>811</v>
       </c>
       <c r="D285" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E285" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5013,6 +5870,9 @@
         <v>344</v>
       </c>
       <c r="D286" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E286" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5029,6 +5889,9 @@
         <v>869</v>
       </c>
       <c r="D287" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E287" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5045,6 +5908,9 @@
         <v>902</v>
       </c>
       <c r="D288" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E288" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5061,6 +5927,9 @@
         <v>855</v>
       </c>
       <c r="D289" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="E289" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5077,6 +5946,9 @@
         <v>794</v>
       </c>
       <c r="D290" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E290" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5093,6 +5965,9 @@
         <v>643</v>
       </c>
       <c r="D291" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E291" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5109,6 +5984,9 @@
         <v>0</v>
       </c>
       <c r="D292" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E292" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5125,6 +6003,9 @@
         <v>698</v>
       </c>
       <c r="D293" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E293" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5141,6 +6022,9 @@
         <v>764</v>
       </c>
       <c r="D294" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E294" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5157,6 +6041,9 @@
         <v>584</v>
       </c>
       <c r="D295" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E295" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5173,6 +6060,9 @@
         <v>728</v>
       </c>
       <c r="D296" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E296" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5189,6 +6079,9 @@
         <v>593</v>
       </c>
       <c r="D297" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E297" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5205,6 +6098,9 @@
         <v>439</v>
       </c>
       <c r="D298" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E298" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5221,6 +6117,9 @@
         <v>361</v>
       </c>
       <c r="D299" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E299" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5237,6 +6136,9 @@
         <v>220</v>
       </c>
       <c r="D300" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E300" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5253,6 +6155,9 @@
         <v>543</v>
       </c>
       <c r="D301" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E301" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5269,6 +6174,9 @@
         <v>531</v>
       </c>
       <c r="D302" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E302" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5285,6 +6193,9 @@
         <v>0</v>
       </c>
       <c r="D303" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E303" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5301,6 +6212,9 @@
         <v>1158</v>
       </c>
       <c r="D304" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E304" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5317,6 +6231,9 @@
         <v>0</v>
       </c>
       <c r="D305" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E305" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5333,6 +6250,9 @@
         <v>502</v>
       </c>
       <c r="D306" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E306" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5349,6 +6269,9 @@
         <v>0</v>
       </c>
       <c r="D307" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E307" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5365,6 +6288,28 @@
         <v>747</v>
       </c>
       <c r="D308" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E308" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>113392</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E309" t="n">
         <v>3280815</v>
       </c>
     </row>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,11 +452,6 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>stringency_index</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>population</t>
         </is>
       </c>
@@ -474,9 +469,6 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="E2" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -493,9 +485,6 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="E3" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -512,9 +501,6 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="E4" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -531,9 +517,6 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="E5" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -550,9 +533,6 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="E6" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -569,9 +549,6 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>29.17</v>
-      </c>
-      <c r="E7" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -588,9 +565,6 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="E8" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -607,9 +581,6 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="E9" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -626,9 +597,6 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="E10" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -645,9 +613,6 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="E11" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -664,9 +629,6 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="E12" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -683,9 +645,6 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>45.83</v>
-      </c>
-      <c r="E13" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -702,9 +661,6 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>70.83</v>
-      </c>
-      <c r="E14" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -721,9 +677,6 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="E15" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -740,9 +693,6 @@
         <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>77.78</v>
-      </c>
-      <c r="E16" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -759,9 +709,6 @@
         <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E17" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -778,9 +725,6 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E18" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -797,9 +741,6 @@
         <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E19" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -816,9 +757,6 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E20" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -835,9 +773,6 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E21" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -854,9 +789,6 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E22" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -873,9 +805,6 @@
         <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E23" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -892,9 +821,6 @@
         <v>46</v>
       </c>
       <c r="D24" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E24" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -911,9 +837,6 @@
         <v>21</v>
       </c>
       <c r="D25" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E25" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -930,9 +853,6 @@
         <v>65</v>
       </c>
       <c r="D26" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E26" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -949,9 +869,6 @@
         <v>45</v>
       </c>
       <c r="D27" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E27" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -968,9 +885,6 @@
         <v>52</v>
       </c>
       <c r="D28" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E28" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -987,9 +901,6 @@
         <v>39</v>
       </c>
       <c r="D29" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E29" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1006,9 +917,6 @@
         <v>74</v>
       </c>
       <c r="D30" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E30" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1025,9 +933,6 @@
         <v>46</v>
       </c>
       <c r="D31" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E31" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1044,9 +949,6 @@
         <v>45</v>
       </c>
       <c r="D32" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E32" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1063,9 +965,6 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E33" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1082,9 +981,6 @@
         <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E34" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1101,9 +997,6 @@
         <v>90</v>
       </c>
       <c r="D35" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E35" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1120,9 +1013,6 @@
         <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E36" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1139,9 +1029,6 @@
         <v>54</v>
       </c>
       <c r="D37" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="E37" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1158,9 +1045,6 @@
         <v>43</v>
       </c>
       <c r="D38" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E38" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1177,9 +1061,6 @@
         <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E39" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1196,9 +1077,6 @@
         <v>63</v>
       </c>
       <c r="D40" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E40" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1215,9 +1093,6 @@
         <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E41" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1234,9 +1109,6 @@
         <v>46</v>
       </c>
       <c r="D42" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E42" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1253,9 +1125,6 @@
         <v>27</v>
       </c>
       <c r="D43" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E43" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1272,9 +1141,6 @@
         <v>57</v>
       </c>
       <c r="D44" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E44" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1291,9 +1157,6 @@
         <v>47</v>
       </c>
       <c r="D45" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E45" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1310,9 +1173,6 @@
         <v>54</v>
       </c>
       <c r="D46" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E46" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1329,9 +1189,6 @@
         <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E47" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1348,9 +1205,6 @@
         <v>24</v>
       </c>
       <c r="D48" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E48" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1367,9 +1221,6 @@
         <v>33</v>
       </c>
       <c r="D49" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E49" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1386,9 +1237,6 @@
         <v>26</v>
       </c>
       <c r="D50" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E50" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1405,9 +1253,6 @@
         <v>45</v>
       </c>
       <c r="D51" t="n">
-        <v>92.59</v>
-      </c>
-      <c r="E51" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1424,9 +1269,6 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E52" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1443,9 +1285,6 @@
         <v>65</v>
       </c>
       <c r="D53" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E53" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1462,9 +1301,6 @@
         <v>30</v>
       </c>
       <c r="D54" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E54" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1481,9 +1317,6 @@
         <v>49</v>
       </c>
       <c r="D55" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E55" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1500,9 +1333,6 @@
         <v>20</v>
       </c>
       <c r="D56" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E56" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1519,9 +1349,6 @@
         <v>92</v>
       </c>
       <c r="D57" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E57" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1538,9 +1365,6 @@
         <v>80</v>
       </c>
       <c r="D58" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E58" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1557,9 +1381,6 @@
         <v>24</v>
       </c>
       <c r="D59" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E59" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1576,9 +1397,6 @@
         <v>58</v>
       </c>
       <c r="D60" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E60" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1595,9 +1413,6 @@
         <v>18</v>
       </c>
       <c r="D61" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E61" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1614,9 +1429,6 @@
         <v>69</v>
       </c>
       <c r="D62" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E62" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1633,9 +1445,6 @@
         <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E63" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1652,9 +1461,6 @@
         <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E64" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1671,9 +1477,6 @@
         <v>40</v>
       </c>
       <c r="D65" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E65" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1690,9 +1493,6 @@
         <v>43</v>
       </c>
       <c r="D66" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E66" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1709,9 +1509,6 @@
         <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E67" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1728,9 +1525,6 @@
         <v>27</v>
       </c>
       <c r="D68" t="n">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="E68" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1747,9 +1541,6 @@
         <v>24</v>
       </c>
       <c r="D69" t="n">
-        <v>81.48</v>
-      </c>
-      <c r="E69" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1766,9 +1557,6 @@
         <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>81.48</v>
-      </c>
-      <c r="E70" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1785,9 +1573,6 @@
         <v>23</v>
       </c>
       <c r="D71" t="n">
-        <v>81.48</v>
-      </c>
-      <c r="E71" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1804,9 +1589,6 @@
         <v>37</v>
       </c>
       <c r="D72" t="n">
-        <v>79.63</v>
-      </c>
-      <c r="E72" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1823,9 +1605,6 @@
         <v>18</v>
       </c>
       <c r="D73" t="n">
-        <v>76.84999999999999</v>
-      </c>
-      <c r="E73" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1842,9 +1621,6 @@
         <v>31</v>
       </c>
       <c r="D74" t="n">
-        <v>76.84999999999999</v>
-      </c>
-      <c r="E74" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1861,9 +1637,6 @@
         <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>76.84999999999999</v>
-      </c>
-      <c r="E75" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1880,9 +1653,6 @@
         <v>14</v>
       </c>
       <c r="D76" t="n">
-        <v>76.84999999999999</v>
-      </c>
-      <c r="E76" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1899,9 +1669,6 @@
         <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>76.84999999999999</v>
-      </c>
-      <c r="E77" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1918,9 +1685,6 @@
         <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>76.84999999999999</v>
-      </c>
-      <c r="E78" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1937,9 +1701,6 @@
         <v>12</v>
       </c>
       <c r="D79" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E79" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1956,9 +1717,6 @@
         <v>22</v>
       </c>
       <c r="D80" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E80" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1975,9 +1733,6 @@
         <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E81" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -1994,9 +1749,6 @@
         <v>10</v>
       </c>
       <c r="D82" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E82" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2013,9 +1765,6 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E83" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2032,9 +1781,6 @@
         <v>10</v>
       </c>
       <c r="D84" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E84" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2051,9 +1797,6 @@
         <v>19</v>
       </c>
       <c r="D85" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E85" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2070,9 +1813,6 @@
         <v>27</v>
       </c>
       <c r="D86" t="n">
-        <v>71.3</v>
-      </c>
-      <c r="E86" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2089,9 +1829,6 @@
         <v>23</v>
       </c>
       <c r="D87" t="n">
-        <v>65.73999999999999</v>
-      </c>
-      <c r="E87" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2108,9 +1845,6 @@
         <v>9</v>
       </c>
       <c r="D88" t="n">
-        <v>65.73999999999999</v>
-      </c>
-      <c r="E88" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2127,9 +1861,6 @@
         <v>16</v>
       </c>
       <c r="D89" t="n">
-        <v>65.73999999999999</v>
-      </c>
-      <c r="E89" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2146,9 +1877,6 @@
         <v>14</v>
       </c>
       <c r="D90" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E90" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2165,9 +1893,6 @@
         <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E91" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2184,9 +1909,6 @@
         <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E92" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2203,9 +1925,6 @@
         <v>43</v>
       </c>
       <c r="D93" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E93" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2222,9 +1941,6 @@
         <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E94" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2241,9 +1957,6 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E95" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2260,9 +1973,6 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E96" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2279,9 +1989,6 @@
         <v>98</v>
       </c>
       <c r="D97" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E97" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2298,9 +2005,6 @@
         <v>24</v>
       </c>
       <c r="D98" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E98" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2317,9 +2021,6 @@
         <v>47</v>
       </c>
       <c r="D99" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E99" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2336,9 +2037,6 @@
         <v>57</v>
       </c>
       <c r="D100" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E100" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2355,9 +2053,6 @@
         <v>61</v>
       </c>
       <c r="D101" t="n">
-        <v>54.63</v>
-      </c>
-      <c r="E101" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2374,9 +2069,6 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E102" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2393,9 +2085,6 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E103" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2412,9 +2101,6 @@
         <v>147</v>
       </c>
       <c r="D104" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E104" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2431,9 +2117,6 @@
         <v>45</v>
       </c>
       <c r="D105" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E105" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2450,9 +2133,6 @@
         <v>56</v>
       </c>
       <c r="D106" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E106" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2469,9 +2149,6 @@
         <v>33</v>
       </c>
       <c r="D107" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E107" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2488,9 +2165,6 @@
         <v>99</v>
       </c>
       <c r="D108" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E108" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2507,9 +2181,6 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E109" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2526,9 +2197,6 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E110" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2545,9 +2213,6 @@
         <v>252</v>
       </c>
       <c r="D111" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E111" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2564,9 +2229,6 @@
         <v>63</v>
       </c>
       <c r="D112" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E112" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2583,9 +2245,6 @@
         <v>88</v>
       </c>
       <c r="D113" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E113" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2602,9 +2261,6 @@
         <v>120</v>
       </c>
       <c r="D114" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E114" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2621,9 +2277,6 @@
         <v>139</v>
       </c>
       <c r="D115" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E115" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2640,9 +2293,6 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E116" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2659,9 +2309,6 @@
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E117" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2678,9 +2325,6 @@
         <v>390</v>
       </c>
       <c r="D118" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E118" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2697,9 +2341,6 @@
         <v>128</v>
       </c>
       <c r="D119" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E119" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2716,9 +2357,6 @@
         <v>153</v>
       </c>
       <c r="D120" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E120" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2735,9 +2373,6 @@
         <v>182</v>
       </c>
       <c r="D121" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E121" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2754,9 +2389,6 @@
         <v>174</v>
       </c>
       <c r="D122" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E122" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2773,9 +2405,6 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>51.85</v>
-      </c>
-      <c r="E123" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2792,9 +2421,6 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E124" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2811,9 +2437,6 @@
         <v>496</v>
       </c>
       <c r="D125" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E125" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2830,9 +2453,6 @@
         <v>163</v>
       </c>
       <c r="D126" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E126" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2849,9 +2469,6 @@
         <v>248</v>
       </c>
       <c r="D127" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E127" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2868,9 +2485,6 @@
         <v>217</v>
       </c>
       <c r="D128" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E128" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2887,9 +2501,6 @@
         <v>316</v>
       </c>
       <c r="D129" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E129" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2906,9 +2517,6 @@
         <v>317</v>
       </c>
       <c r="D130" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E130" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2925,9 +2533,6 @@
         <v>158</v>
       </c>
       <c r="D131" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E131" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2944,9 +2549,6 @@
         <v>104</v>
       </c>
       <c r="D132" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E132" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2963,9 +2565,6 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E133" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -2982,9 +2581,6 @@
         <v>430</v>
       </c>
       <c r="D134" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E134" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3001,9 +2597,6 @@
         <v>270</v>
       </c>
       <c r="D135" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E135" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3020,9 +2613,6 @@
         <v>227</v>
       </c>
       <c r="D136" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E136" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3039,9 +2629,6 @@
         <v>253</v>
       </c>
       <c r="D137" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E137" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3058,9 +2645,6 @@
         <v>179</v>
       </c>
       <c r="D138" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E138" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3077,9 +2661,6 @@
         <v>139</v>
       </c>
       <c r="D139" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E139" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3096,9 +2677,6 @@
         <v>308</v>
       </c>
       <c r="D140" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E140" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3115,9 +2693,6 @@
         <v>328</v>
       </c>
       <c r="D141" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E141" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3134,9 +2709,6 @@
         <v>347</v>
       </c>
       <c r="D142" t="n">
-        <v>56.48</v>
-      </c>
-      <c r="E142" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3153,9 +2725,6 @@
         <v>305</v>
       </c>
       <c r="D143" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E143" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3172,9 +2741,6 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E144" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3191,9 +2757,6 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E145" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3210,9 +2773,6 @@
         <v>731</v>
       </c>
       <c r="D146" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E146" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3229,9 +2789,6 @@
         <v>268</v>
       </c>
       <c r="D147" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E147" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3248,9 +2805,6 @@
         <v>361</v>
       </c>
       <c r="D148" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E148" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3267,9 +2821,6 @@
         <v>317</v>
       </c>
       <c r="D149" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E149" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3286,9 +2837,6 @@
         <v>432</v>
       </c>
       <c r="D150" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E150" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3305,9 +2853,6 @@
         <v>0</v>
       </c>
       <c r="D151" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E151" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3324,9 +2869,6 @@
         <v>420</v>
       </c>
       <c r="D152" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E152" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3343,9 +2885,6 @@
         <v>166</v>
       </c>
       <c r="D153" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E153" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3362,9 +2901,6 @@
         <v>394</v>
       </c>
       <c r="D154" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E154" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3381,9 +2917,6 @@
         <v>282</v>
       </c>
       <c r="D155" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E155" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3400,9 +2933,6 @@
         <v>258</v>
       </c>
       <c r="D156" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E156" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3419,9 +2949,6 @@
         <v>291</v>
       </c>
       <c r="D157" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E157" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3438,9 +2965,6 @@
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E158" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3457,9 +2981,6 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E159" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3476,9 +2997,6 @@
         <v>811</v>
       </c>
       <c r="D160" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E160" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3495,9 +3013,6 @@
         <v>210</v>
       </c>
       <c r="D161" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E161" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3514,9 +3029,6 @@
         <v>253</v>
       </c>
       <c r="D162" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E162" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3533,9 +3045,6 @@
         <v>223</v>
       </c>
       <c r="D163" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E163" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3552,9 +3061,6 @@
         <v>351</v>
       </c>
       <c r="D164" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E164" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3571,9 +3077,6 @@
         <v>266</v>
       </c>
       <c r="D165" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E165" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3590,9 +3093,6 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E166" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3609,9 +3109,6 @@
         <v>310</v>
       </c>
       <c r="D167" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E167" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3628,9 +3125,6 @@
         <v>240</v>
       </c>
       <c r="D168" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E168" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3647,9 +3141,6 @@
         <v>340</v>
       </c>
       <c r="D169" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E169" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3666,9 +3157,6 @@
         <v>338</v>
       </c>
       <c r="D170" t="n">
-        <v>59.26</v>
-      </c>
-      <c r="E170" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3685,9 +3173,6 @@
         <v>367</v>
       </c>
       <c r="D171" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E171" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3704,9 +3189,6 @@
         <v>319</v>
       </c>
       <c r="D172" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E172" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3723,9 +3205,6 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E173" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3742,9 +3221,6 @@
         <v>314</v>
       </c>
       <c r="D174" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E174" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3761,9 +3237,6 @@
         <v>297</v>
       </c>
       <c r="D175" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E175" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3780,9 +3253,6 @@
         <v>283</v>
       </c>
       <c r="D176" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E176" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3799,9 +3269,6 @@
         <v>311</v>
       </c>
       <c r="D177" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E177" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3818,9 +3285,6 @@
         <v>294</v>
       </c>
       <c r="D178" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E178" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3837,9 +3301,6 @@
         <v>336</v>
       </c>
       <c r="D179" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E179" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3856,9 +3317,6 @@
         <v>243</v>
       </c>
       <c r="D180" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="E180" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3875,9 +3333,6 @@
         <v>171</v>
       </c>
       <c r="D181" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E181" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3894,9 +3349,6 @@
         <v>270</v>
       </c>
       <c r="D182" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E182" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3913,9 +3365,6 @@
         <v>283</v>
       </c>
       <c r="D183" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E183" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3932,9 +3381,6 @@
         <v>287</v>
       </c>
       <c r="D184" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E184" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3951,9 +3397,6 @@
         <v>338</v>
       </c>
       <c r="D185" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E185" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3970,9 +3413,6 @@
         <v>297</v>
       </c>
       <c r="D186" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E186" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -3989,9 +3429,6 @@
         <v>121</v>
       </c>
       <c r="D187" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="E187" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4008,9 +3445,6 @@
         <v>100</v>
       </c>
       <c r="D188" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E188" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4027,9 +3461,6 @@
         <v>301</v>
       </c>
       <c r="D189" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E189" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4046,9 +3477,6 @@
         <v>297</v>
       </c>
       <c r="D190" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E190" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4065,9 +3493,6 @@
         <v>286</v>
       </c>
       <c r="D191" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E191" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4084,9 +3509,6 @@
         <v>290</v>
       </c>
       <c r="D192" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E192" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4103,9 +3525,6 @@
         <v>304</v>
       </c>
       <c r="D193" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E193" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4122,9 +3541,6 @@
         <v>327</v>
       </c>
       <c r="D194" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E194" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4141,9 +3557,6 @@
         <v>170</v>
       </c>
       <c r="D195" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E195" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4160,9 +3573,6 @@
         <v>294</v>
       </c>
       <c r="D196" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E196" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4179,9 +3589,6 @@
         <v>282</v>
       </c>
       <c r="D197" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E197" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4198,9 +3605,6 @@
         <v>394</v>
       </c>
       <c r="D198" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E198" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4217,9 +3621,6 @@
         <v>292</v>
       </c>
       <c r="D199" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E199" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4236,9 +3637,6 @@
         <v>320</v>
       </c>
       <c r="D200" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E200" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4255,9 +3653,6 @@
         <v>211</v>
       </c>
       <c r="D201" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E201" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4274,9 +3669,6 @@
         <v>93</v>
       </c>
       <c r="D202" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E202" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4293,9 +3685,6 @@
         <v>216</v>
       </c>
       <c r="D203" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E203" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4312,9 +3701,6 @@
         <v>344</v>
       </c>
       <c r="D204" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E204" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4331,9 +3717,6 @@
         <v>235</v>
       </c>
       <c r="D205" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E205" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4350,9 +3733,6 @@
         <v>248</v>
       </c>
       <c r="D206" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E206" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4369,9 +3749,6 @@
         <v>233</v>
       </c>
       <c r="D207" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E207" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4388,9 +3765,6 @@
         <v>123</v>
       </c>
       <c r="D208" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E208" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4407,9 +3781,6 @@
         <v>81</v>
       </c>
       <c r="D209" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E209" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4426,9 +3797,6 @@
         <v>225</v>
       </c>
       <c r="D210" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E210" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4445,9 +3813,6 @@
         <v>243</v>
       </c>
       <c r="D211" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E211" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4464,9 +3829,6 @@
         <v>280</v>
       </c>
       <c r="D212" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E212" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4483,9 +3845,6 @@
         <v>226</v>
       </c>
       <c r="D213" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E213" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4502,9 +3861,6 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E214" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4521,9 +3877,6 @@
         <v>379</v>
       </c>
       <c r="D215" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E215" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4540,9 +3893,6 @@
         <v>95</v>
       </c>
       <c r="D216" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E216" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4559,9 +3909,6 @@
         <v>261</v>
       </c>
       <c r="D217" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E217" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4578,9 +3925,6 @@
         <v>365</v>
       </c>
       <c r="D218" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E218" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4597,9 +3941,6 @@
         <v>453</v>
       </c>
       <c r="D219" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E219" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4616,9 +3957,6 @@
         <v>389</v>
       </c>
       <c r="D220" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E220" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4635,9 +3973,6 @@
         <v>428</v>
       </c>
       <c r="D221" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E221" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4654,9 +3989,6 @@
         <v>302</v>
       </c>
       <c r="D222" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E222" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4673,9 +4005,6 @@
         <v>190</v>
       </c>
       <c r="D223" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E223" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4692,9 +4021,6 @@
         <v>336</v>
       </c>
       <c r="D224" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E224" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4711,9 +4037,6 @@
         <v>482</v>
       </c>
       <c r="D225" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E225" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4730,9 +4053,6 @@
         <v>569</v>
       </c>
       <c r="D226" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E226" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4749,9 +4069,6 @@
         <v>621</v>
       </c>
       <c r="D227" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E227" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4768,9 +4085,6 @@
         <v>716</v>
       </c>
       <c r="D228" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E228" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4787,9 +4101,6 @@
         <v>551</v>
       </c>
       <c r="D229" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E229" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4806,9 +4117,6 @@
         <v>549</v>
       </c>
       <c r="D230" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E230" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4825,9 +4133,6 @@
         <v>728</v>
       </c>
       <c r="D231" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E231" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4844,9 +4149,6 @@
         <v>926</v>
       </c>
       <c r="D232" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E232" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4863,9 +4165,6 @@
         <v>999</v>
       </c>
       <c r="D233" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E233" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4882,9 +4181,6 @@
         <v>1179</v>
       </c>
       <c r="D234" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E234" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4901,9 +4197,6 @@
         <v>1265</v>
       </c>
       <c r="D235" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E235" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4920,9 +4213,6 @@
         <v>1135</v>
       </c>
       <c r="D236" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E236" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4939,9 +4229,6 @@
         <v>703</v>
       </c>
       <c r="D237" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E237" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4958,9 +4245,6 @@
         <v>1555</v>
       </c>
       <c r="D238" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E238" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4977,9 +4261,6 @@
         <v>1586</v>
       </c>
       <c r="D239" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E239" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -4996,9 +4277,6 @@
         <v>1902</v>
       </c>
       <c r="D240" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E240" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5015,9 +4293,6 @@
         <v>1498</v>
       </c>
       <c r="D241" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E241" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5034,9 +4309,6 @@
         <v>1953</v>
       </c>
       <c r="D242" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E242" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5053,9 +4325,6 @@
         <v>1415</v>
       </c>
       <c r="D243" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E243" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5072,9 +4341,6 @@
         <v>764</v>
       </c>
       <c r="D244" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E244" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5091,9 +4357,6 @@
         <v>1553</v>
       </c>
       <c r="D245" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E245" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5110,9 +4373,6 @@
         <v>1776</v>
       </c>
       <c r="D246" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E246" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5129,9 +4389,6 @@
         <v>1908</v>
       </c>
       <c r="D247" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E247" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5148,9 +4405,6 @@
         <v>1921</v>
       </c>
       <c r="D248" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E248" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5167,9 +4421,6 @@
         <v>1785</v>
       </c>
       <c r="D249" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E249" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5186,9 +4437,6 @@
         <v>1211</v>
       </c>
       <c r="D250" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E250" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5205,9 +4453,6 @@
         <v>996</v>
       </c>
       <c r="D251" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E251" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5224,9 +4469,6 @@
         <v>1605</v>
       </c>
       <c r="D252" t="n">
-        <v>40.74</v>
-      </c>
-      <c r="E252" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5243,9 +4485,6 @@
         <v>1541</v>
       </c>
       <c r="D253" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E253" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5262,9 +4501,6 @@
         <v>1728</v>
       </c>
       <c r="D254" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E254" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5281,9 +4517,6 @@
         <v>1332</v>
       </c>
       <c r="D255" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E255" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5300,9 +4533,6 @@
         <v>1275</v>
       </c>
       <c r="D256" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E256" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5319,9 +4549,6 @@
         <v>1056</v>
       </c>
       <c r="D257" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E257" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5338,9 +4565,6 @@
         <v>733</v>
       </c>
       <c r="D258" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="E258" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5357,9 +4581,6 @@
         <v>1255</v>
       </c>
       <c r="D259" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="E259" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5376,9 +4597,6 @@
         <v>1633</v>
       </c>
       <c r="D260" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="E260" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5395,9 +4613,6 @@
         <v>1180</v>
       </c>
       <c r="D261" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="E261" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5414,9 +4629,6 @@
         <v>1237</v>
       </c>
       <c r="D262" t="n">
-        <v>55.56</v>
-      </c>
-      <c r="E262" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5433,9 +4645,6 @@
         <v>1315</v>
       </c>
       <c r="D263" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E263" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5452,9 +4661,6 @@
         <v>697</v>
       </c>
       <c r="D264" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E264" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5471,9 +4677,6 @@
         <v>547</v>
       </c>
       <c r="D265" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E265" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5490,9 +4693,6 @@
         <v>1186</v>
       </c>
       <c r="D266" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E266" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5509,9 +4709,6 @@
         <v>1589</v>
       </c>
       <c r="D267" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E267" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5528,9 +4725,6 @@
         <v>924</v>
       </c>
       <c r="D268" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E268" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5547,9 +4741,6 @@
         <v>1179</v>
       </c>
       <c r="D269" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E269" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5566,9 +4757,6 @@
         <v>1279</v>
       </c>
       <c r="D270" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E270" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5585,9 +4773,6 @@
         <v>664</v>
       </c>
       <c r="D271" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E271" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5604,9 +4789,6 @@
         <v>527</v>
       </c>
       <c r="D272" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E272" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5623,9 +4805,6 @@
         <v>1184</v>
       </c>
       <c r="D273" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E273" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5642,9 +4821,6 @@
         <v>1293</v>
       </c>
       <c r="D274" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E274" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5661,9 +4837,6 @@
         <v>1161</v>
       </c>
       <c r="D275" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E275" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5680,9 +4853,6 @@
         <v>1254</v>
       </c>
       <c r="D276" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E276" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5699,9 +4869,6 @@
         <v>975</v>
       </c>
       <c r="D277" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E277" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5718,9 +4885,6 @@
         <v>739</v>
       </c>
       <c r="D278" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E278" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5737,9 +4901,6 @@
         <v>437</v>
       </c>
       <c r="D279" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E279" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5756,9 +4917,6 @@
         <v>1077</v>
       </c>
       <c r="D280" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E280" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5775,9 +4933,6 @@
         <v>1296</v>
       </c>
       <c r="D281" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E281" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5794,9 +4949,6 @@
         <v>1286</v>
       </c>
       <c r="D282" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E282" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5813,9 +4965,6 @@
         <v>940</v>
       </c>
       <c r="D283" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E283" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5832,9 +4981,6 @@
         <v>763</v>
       </c>
       <c r="D284" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E284" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5851,9 +4997,6 @@
         <v>811</v>
       </c>
       <c r="D285" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E285" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5870,9 +5013,6 @@
         <v>344</v>
       </c>
       <c r="D286" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E286" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5889,9 +5029,6 @@
         <v>869</v>
       </c>
       <c r="D287" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E287" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5908,9 +5045,6 @@
         <v>902</v>
       </c>
       <c r="D288" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E288" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5927,9 +5061,6 @@
         <v>855</v>
       </c>
       <c r="D289" t="n">
-        <v>48.15</v>
-      </c>
-      <c r="E289" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5946,9 +5077,6 @@
         <v>794</v>
       </c>
       <c r="D290" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E290" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5965,9 +5093,6 @@
         <v>643</v>
       </c>
       <c r="D291" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E291" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -5984,9 +5109,6 @@
         <v>0</v>
       </c>
       <c r="D292" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E292" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6003,9 +5125,6 @@
         <v>698</v>
       </c>
       <c r="D293" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E293" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6022,9 +5141,6 @@
         <v>764</v>
       </c>
       <c r="D294" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E294" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6041,9 +5157,6 @@
         <v>584</v>
       </c>
       <c r="D295" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E295" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6060,9 +5173,6 @@
         <v>728</v>
       </c>
       <c r="D296" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E296" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6079,9 +5189,6 @@
         <v>593</v>
       </c>
       <c r="D297" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E297" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6098,9 +5205,6 @@
         <v>439</v>
       </c>
       <c r="D298" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E298" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6117,9 +5221,6 @@
         <v>361</v>
       </c>
       <c r="D299" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E299" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6136,9 +5237,6 @@
         <v>220</v>
       </c>
       <c r="D300" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E300" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6155,9 +5253,6 @@
         <v>543</v>
       </c>
       <c r="D301" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E301" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6174,9 +5269,6 @@
         <v>531</v>
       </c>
       <c r="D302" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E302" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6193,9 +5285,6 @@
         <v>0</v>
       </c>
       <c r="D303" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E303" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6212,9 +5301,6 @@
         <v>1158</v>
       </c>
       <c r="D304" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E304" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6231,9 +5317,6 @@
         <v>0</v>
       </c>
       <c r="D305" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E305" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6250,9 +5333,6 @@
         <v>502</v>
       </c>
       <c r="D306" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E306" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6269,9 +5349,6 @@
         <v>0</v>
       </c>
       <c r="D307" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E307" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6288,9 +5365,6 @@
         <v>747</v>
       </c>
       <c r="D308" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E308" t="n">
         <v>3280815</v>
       </c>
     </row>
@@ -6307,9 +5381,22 @@
         <v>0</v>
       </c>
       <c r="D309" t="n">
-        <v>42.59</v>
-      </c>
-      <c r="E309" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2021-01-07</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>113392</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
         <v>3280815</v>
       </c>
     </row>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D310"/>
+  <dimension ref="A1:D311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5400,6 +5400,22 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2021-01-08</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>114920</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1528</v>
+      </c>
+      <c r="D311" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D311"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5416,6 +5416,38 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2021-01-09</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>115379</v>
+      </c>
+      <c r="C312" t="n">
+        <v>459</v>
+      </c>
+      <c r="D312" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2021-01-10</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>115633</v>
+      </c>
+      <c r="C313" t="n">
+        <v>254</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5448,6 +5448,22 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2021-01-11</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>115633</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:D315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5464,6 +5464,22 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2021-01-12</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>116200</v>
+      </c>
+      <c r="C315" t="n">
+        <v>567</v>
+      </c>
+      <c r="D315" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D315"/>
+  <dimension ref="A1:D317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5480,6 +5480,38 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2021-01-13</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>116668</v>
+      </c>
+      <c r="C316" t="n">
+        <v>468</v>
+      </c>
+      <c r="D316" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2021-01-14</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C317" t="n">
+        <v>343</v>
+      </c>
+      <c r="D317" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D317"/>
+  <dimension ref="A1:D318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5512,6 +5512,22 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2021-01-15</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D318"/>
+  <dimension ref="A1:D324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5528,6 +5528,102 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2021-01-16</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2021-01-17</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>117011</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2021-01-18</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>118083</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1072</v>
+      </c>
+      <c r="D321" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>118383</v>
+      </c>
+      <c r="C322" t="n">
+        <v>300</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2021-01-20</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>118717</v>
+      </c>
+      <c r="C323" t="n">
+        <v>334</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2021-01-21</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>119206</v>
+      </c>
+      <c r="C324" t="n">
+        <v>489</v>
+      </c>
+      <c r="D324" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D324"/>
+  <dimension ref="A1:D326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5624,6 +5624,38 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2021-01-22</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>119420</v>
+      </c>
+      <c r="C325" t="n">
+        <v>214</v>
+      </c>
+      <c r="D325" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2021-01-23</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>119420</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0</v>
+      </c>
+      <c r="D326" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D326"/>
+  <dimension ref="A1:D328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5656,6 +5656,38 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>119420</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2021-01-25</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>120143</v>
+      </c>
+      <c r="C328" t="n">
+        <v>723</v>
+      </c>
+      <c r="D328" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D328"/>
+  <dimension ref="A1:D330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5688,6 +5688,38 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2021-01-26</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>120532</v>
+      </c>
+      <c r="C329" t="n">
+        <v>389</v>
+      </c>
+      <c r="D329" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>120864</v>
+      </c>
+      <c r="C330" t="n">
+        <v>332</v>
+      </c>
+      <c r="D330" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D330"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5720,6 +5720,38 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2021-01-28</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>121194</v>
+      </c>
+      <c r="C331" t="n">
+        <v>330</v>
+      </c>
+      <c r="D331" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>121497</v>
+      </c>
+      <c r="C332" t="n">
+        <v>303</v>
+      </c>
+      <c r="D332" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D332"/>
+  <dimension ref="A1:D337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5752,6 +5752,86 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2021-01-30</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>121497</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>121497</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2021-02-01</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>122199</v>
+      </c>
+      <c r="C335" t="n">
+        <v>702</v>
+      </c>
+      <c r="D335" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2021-02-02</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>122461</v>
+      </c>
+      <c r="C336" t="n">
+        <v>262</v>
+      </c>
+      <c r="D336" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2021-02-03</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>122828</v>
+      </c>
+      <c r="C337" t="n">
+        <v>367</v>
+      </c>
+      <c r="D337" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataSet/rawData/mbih.xlsx
+++ b/dataSet/rawData/mbih.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D337"/>
+  <dimension ref="A1:D340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5832,6 +5832,54 @@
         <v>3280815</v>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2021-02-04</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>122828</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0</v>
+      </c>
+      <c r="D338" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2021-02-05</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>123434</v>
+      </c>
+      <c r="C339" t="n">
+        <v>606</v>
+      </c>
+      <c r="D339" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2021-02-06</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>123434</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" t="n">
+        <v>3280815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
